--- a/02_Energy_calculation/01 Specific energy demand_minimal.xlsx
+++ b/02_Energy_calculation/01 Specific energy demand_minimal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge37kog\bwSyncShare\Follow ETSAP\Veröffentlichungen\Materials and energy demands 2018\Publication\ANNEX\02_Energy_calculation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge37kog\bwSyncShare\Follow ETSAP\Veröffentlichungen\Materials and energy demands 2018\Publication\ANNEX_submission\02_Energy_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95613FD0-F6F0-4BA7-B47B-CD7171ADE6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54377DB9-C9DE-4210-8411-D0D175E3C89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="17520" tabRatio="550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="16" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>Coal</t>
   </si>
   <si>
-    <t>GJ</t>
-  </si>
-  <si>
     <t>[3,4]</t>
   </si>
   <si>
@@ -1031,6 +1028,87 @@
     <t xml:space="preserve">Some processes can employ different fuels for heat production (for example, smelting), and the actual selection of fuel depends strongly on its regional availability and price. To capture this flexibility, maximum fuel shares are defined for these cases. Differences in energy requirements among different fuels, which arise from variations in combustion or conversion efficiency, are in that case neglected because they are small and not well documented in the literature. </t>
   </si>
   <si>
+    <t>Short dry + preheater + precalciner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.wbcsd.org/2017/06/CSI_ECRA_Technology_Papers_2017.pdf </t>
+  </si>
+  <si>
+    <t>European Cement Research Academy</t>
+  </si>
+  <si>
+    <t>Development of State of the Art-Techniques in Cement Manufacturing: Trying to Look Ahead, Revision 2017</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/sites/default/files/tools/ENERGY%20STAR%20Guide%20for%20the%20Cement%20Industry%2027_08_2013_Rev%20js%20reformat%2011192014.pdf</t>
+  </si>
+  <si>
+    <t>EnergyStar</t>
+  </si>
+  <si>
+    <t>Energy Efficiency Improvement and Cost Saving Opportunities for Cement Making</t>
+  </si>
+  <si>
+    <t>Ernst Worell; Katerina Kermeli; Christina Galitsky</t>
+  </si>
+  <si>
+    <t>https://www.eurochlor.org/wp-content/uploads/2021/04/11-Electrolysis-thermodynamics.pdf</t>
+  </si>
+  <si>
+    <t>EuroChlor</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/sites/prod/files/2015/08/f26/pulp_and_paper_bandwidth_report.pdf</t>
+  </si>
+  <si>
+    <t>U.S. Department of Energy</t>
+  </si>
+  <si>
+    <t>Bandwidth study on Energy use and potential energy saving opportunities in U.S. pulp and paper manufacturing</t>
+  </si>
+  <si>
+    <t>Methanol production is exothermic, theoretically no energy is needed</t>
+  </si>
+  <si>
+    <t>(All grades of paper have the same theoretical energy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristian Baron, Jorge Perpinan, Manuel Bailera, Begona Pena, 2023, Techno-economic assessment of glassmaking decarbonization through integration of calcium looping carbon capture and power-to-gas technologies, DOI: https://doi.org/10.1016/j.spc.2023.07.029
+</t>
+  </si>
+  <si>
+    <t>Kevin H.R. Rouwenhorst, Aloijsius G.J. Van der Ham, Guido Mul, Sascha R.A. Kersten, 2019, Islanded ammonia power systems: Technology review &amp; conceptual process design, DOI: https://doi.org/10.1016/j.rser.2019.109339</t>
+  </si>
+  <si>
+    <t>Alvarado, S., Maldonado, P. &amp; Jaques, I. Energy and environmental implications of copper production. Energy 24, 307–316; 10.1016/S0360-5442(98)00093-0 (1999).</t>
+  </si>
+  <si>
+    <t>Beukes, N. T. &amp; Badenhorst, J. Copper electrowinning: theoretical and practical design. The Journal of The Southern African Institute of Mining and Metallurgy, 343–356 (2009).</t>
+  </si>
+  <si>
+    <t>Schifo, J. F. &amp; Radia, J. T. Theoretical/Best Practice Energy Use In Metalcasting Operations. Available at https://www.energy.gov/sites/prod/files/2013/11/f4/doebestpractice_052804.pdf (2004).</t>
+  </si>
+  <si>
+    <t>Bolson, N., Cullen, L. &amp; Cullen, J. A robust framework for estimating theoretical minimum energy requirements for industrial processes. Energy 322, 135411; 10.1016/j.energy.2025.135411 (2025).</t>
+  </si>
+  <si>
+    <t>U.S. Department of Energy. Bandwidth Study on Energy Use and Potential Energy Saving Opportunities in U.S. Chemical Manufacturing. Available at https://www.energy.gov/sites/prod/files/2015/08/f26/chemical_bandwidth_report.pdf (2015).</t>
+  </si>
+  <si>
+    <t>Requirements for Aluminum Production. Historical Perspective, Theoretical Limits and Current Practices. Available at https://www1.eere.energy.gov/manufacturing/resources/aluminum/pdfs/al_theoretical.pdf (2007).</t>
+  </si>
+  <si>
+    <t>Fruehan R. J., Fortini O., Paxton H.W., Brindle R., Theoretical Minimum Energies
+To Produce Steel
+for Selected Conditions, URL: http://large.stanford.edu/courses/2016/ph240/martelaro1/docs/fruehan-mar00.pdf (2000)</t>
+  </si>
+  <si>
+    <t>The electrolysis process and its thermodynamic limits</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Specific energy requirements are expressed in </t>
     </r>
@@ -1042,7 +1120,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>GJ per tonne of product</t>
+      <t>GJ per tonne of output product</t>
     </r>
     <r>
       <rPr>
@@ -1055,85 +1133,7 @@
     </r>
   </si>
   <si>
-    <t>Short dry + preheater + precalciner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://docs.wbcsd.org/2017/06/CSI_ECRA_Technology_Papers_2017.pdf </t>
-  </si>
-  <si>
-    <t>European Cement Research Academy</t>
-  </si>
-  <si>
-    <t>Development of State of the Art-Techniques in Cement Manufacturing: Trying to Look Ahead, Revision 2017</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/sites/default/files/tools/ENERGY%20STAR%20Guide%20for%20the%20Cement%20Industry%2027_08_2013_Rev%20js%20reformat%2011192014.pdf</t>
-  </si>
-  <si>
-    <t>EnergyStar</t>
-  </si>
-  <si>
-    <t>Energy Efficiency Improvement and Cost Saving Opportunities for Cement Making</t>
-  </si>
-  <si>
-    <t>Ernst Worell; Katerina Kermeli; Christina Galitsky</t>
-  </si>
-  <si>
-    <t>https://www.eurochlor.org/wp-content/uploads/2021/04/11-Electrolysis-thermodynamics.pdf</t>
-  </si>
-  <si>
-    <t>EuroChlor</t>
-  </si>
-  <si>
-    <t>https://www.energy.gov/sites/prod/files/2015/08/f26/pulp_and_paper_bandwidth_report.pdf</t>
-  </si>
-  <si>
-    <t>U.S. Department of Energy</t>
-  </si>
-  <si>
-    <t>Bandwidth study on Energy use and potential energy saving opportunities in U.S. pulp and paper manufacturing</t>
-  </si>
-  <si>
-    <t>Methanol production is exothermic, theoretically no energy is needed</t>
-  </si>
-  <si>
-    <t>(All grades of paper have the same theoretical energy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristian Baron, Jorge Perpinan, Manuel Bailera, Begona Pena, 2023, Techno-economic assessment of glassmaking decarbonization through integration of calcium looping carbon capture and power-to-gas technologies, DOI: https://doi.org/10.1016/j.spc.2023.07.029
-</t>
-  </si>
-  <si>
-    <t>Kevin H.R. Rouwenhorst, Aloijsius G.J. Van der Ham, Guido Mul, Sascha R.A. Kersten, 2019, Islanded ammonia power systems: Technology review &amp; conceptual process design, DOI: https://doi.org/10.1016/j.rser.2019.109339</t>
-  </si>
-  <si>
-    <t>Alvarado, S., Maldonado, P. &amp; Jaques, I. Energy and environmental implications of copper production. Energy 24, 307–316; 10.1016/S0360-5442(98)00093-0 (1999).</t>
-  </si>
-  <si>
-    <t>Beukes, N. T. &amp; Badenhorst, J. Copper electrowinning: theoretical and practical design. The Journal of The Southern African Institute of Mining and Metallurgy, 343–356 (2009).</t>
-  </si>
-  <si>
-    <t>Schifo, J. F. &amp; Radia, J. T. Theoretical/Best Practice Energy Use In Metalcasting Operations. Available at https://www.energy.gov/sites/prod/files/2013/11/f4/doebestpractice_052804.pdf (2004).</t>
-  </si>
-  <si>
-    <t>Bolson, N., Cullen, L. &amp; Cullen, J. A robust framework for estimating theoretical minimum energy requirements for industrial processes. Energy 322, 135411; 10.1016/j.energy.2025.135411 (2025).</t>
-  </si>
-  <si>
-    <t>U.S. Department of Energy. Bandwidth Study on Energy Use and Potential Energy Saving Opportunities in U.S. Chemical Manufacturing. Available at https://www.energy.gov/sites/prod/files/2015/08/f26/chemical_bandwidth_report.pdf (2015).</t>
-  </si>
-  <si>
-    <t>Requirements for Aluminum Production. Historical Perspective, Theoretical Limits and Current Practices. Available at https://www1.eere.energy.gov/manufacturing/resources/aluminum/pdfs/al_theoretical.pdf (2007).</t>
-  </si>
-  <si>
-    <t>Fruehan R. J., Fortini O., Paxton H.W., Brindle R., Theoretical Minimum Energies
-To Produce Steel
-for Selected Conditions, URL: http://large.stanford.edu/courses/2016/ph240/martelaro1/docs/fruehan-mar00.pdf (2000)</t>
-  </si>
-  <si>
-    <t>The electrolysis process and its thermodynamic limits</t>
+    <t xml:space="preserve">Theoretical coal consumption  based on [3] would lead to 4.1MWh*3.6=14.76 GJ/t. Since source [2] relies on more recent data, this value is assumed to correspond for the theoretical minimal value too. </t>
   </si>
 </sst>
 </file>
@@ -2192,6 +2192,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2200,21 +2215,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2542,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E097F20-C454-4A99-A64B-962EC78AF4EF}">
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2553,52 +2553,52 @@
   <sheetData>
     <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="222" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="223" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="222" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="223" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="222" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="224" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="221" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="224" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="225" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2645,10 +2645,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="255" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="275" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="257" t="s">
         <v>2</v>
@@ -2658,11 +2658,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="262"/>
       <c r="H2" s="282" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="283"/>
       <c r="J2" s="124" t="s">
@@ -2687,20 +2687,20 @@
       <c r="I3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="287" t="s">
-        <v>71</v>
+      <c r="J3" s="292" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="C4" s="198" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="125" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="149">
         <f>F7</f>
@@ -2712,7 +2712,7 @@
         <v>30.864599999999999</v>
       </c>
       <c r="I4" s="39"/>
-      <c r="J4" s="288"/>
+      <c r="J4" s="293"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -2720,24 +2720,24 @@
         <v>6</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5" s="40">
         <v>0.56000000000000005</v>
       </c>
       <c r="I5" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="288"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="293"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -2745,24 +2745,24 @@
         <v>6</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H6" s="40">
         <v>10.6</v>
       </c>
       <c r="I6" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="288"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="293"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -2770,10 +2770,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="8">
         <v>19.7</v>
@@ -2783,21 +2783,21 @@
         <v>19.704599999999999</v>
       </c>
       <c r="I7" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="288"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="293"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="200" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="135" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="11">
         <v>1</v>
@@ -2807,21 +2807,21 @@
         <v>1</v>
       </c>
       <c r="I8" s="178" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="289"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="294"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="64"/>
       <c r="B9" s="46"/>
       <c r="C9" s="112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="202" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="159">
         <f>F7</f>
@@ -2834,19 +2834,19 @@
       </c>
       <c r="I9" s="68"/>
       <c r="J9" s="167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="C10" s="112" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="D10" s="80" t="s">
-        <v>247</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="59"/>
       <c r="G10" s="119"/>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2873,24 +2873,24 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="255" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="275" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="291" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="293"/>
+      <c r="D12" s="290"/>
       <c r="E12" s="259" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G12" s="262"/>
       <c r="H12" s="282" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I12" s="283"/>
       <c r="J12" s="124" t="s">
@@ -2900,8 +2900,8 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="264"/>
       <c r="B13" s="266"/>
-      <c r="C13" s="292"/>
-      <c r="D13" s="294"/>
+      <c r="C13" s="289"/>
+      <c r="D13" s="291"/>
       <c r="E13" s="270"/>
       <c r="F13" s="149" t="s">
         <v>3</v>
@@ -2915,20 +2915,20 @@
       <c r="I13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="287" t="s">
-        <v>71</v>
+      <c r="J13" s="292" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="C14" s="198" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="125" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F14" s="149"/>
       <c r="G14" s="39"/>
@@ -2937,7 +2937,7 @@
         <v>39.379999999999995</v>
       </c>
       <c r="I14" s="39"/>
-      <c r="J14" s="288"/>
+      <c r="J14" s="293"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -2945,24 +2945,24 @@
         <v>6</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H15" s="40">
         <v>0.56000000000000005</v>
       </c>
       <c r="I15" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="288"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="293"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -2970,24 +2970,24 @@
         <v>6</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H16" s="40">
         <v>13.58</v>
       </c>
       <c r="I16" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="288"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="293"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -2995,10 +2995,10 @@
         <v>6</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="8">
         <v>25.24</v>
@@ -3008,21 +3008,21 @@
         <v>25.24</v>
       </c>
       <c r="I17" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="288"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="293"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="200" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="135" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -3032,21 +3032,21 @@
         <v>1</v>
       </c>
       <c r="I18" s="178" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="289"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="294"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="64"/>
       <c r="B19" s="46"/>
       <c r="C19" s="113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D19" s="202" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E19" s="203" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="159">
         <f>F17</f>
@@ -3059,20 +3059,20 @@
       </c>
       <c r="I19" s="68"/>
       <c r="J19" s="167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="D20" s="77" t="s">
-        <v>247</v>
-      </c>
       <c r="E20" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="116"/>
       <c r="G20" s="122"/>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="I20" s="66"/>
       <c r="J20" s="204" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3090,45 +3090,45 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>28</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>29</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>30</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>31</v>
-      </c>
-      <c r="H22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E23" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F23" s="2">
         <v>2022</v>
@@ -3137,24 +3137,24 @@
         <v>45232</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="48" t="s">
-        <v>153</v>
-      </c>
       <c r="E24" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F24" s="2">
         <v>2017</v>
@@ -3163,7 +3163,7 @@
         <v>45232</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3177,10 +3177,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -3209,7 +3209,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
-      <c r="C29" s="290"/>
+      <c r="C29" s="287"/>
       <c r="D29" s="19"/>
       <c r="E29" s="40"/>
       <c r="F29" s="20"/>
@@ -3218,7 +3218,7 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
-      <c r="C30" s="290"/>
+      <c r="C30" s="287"/>
       <c r="D30" s="19"/>
       <c r="E30" s="40"/>
       <c r="F30" s="20"/>
@@ -3272,6 +3272,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="J3:J8"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -3281,14 +3289,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="J3:J8"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3315,7 +3315,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="247" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="248"/>
       <c r="C2" s="248"/>
@@ -3335,11 +3335,11 @@
         <v>4</v>
       </c>
       <c r="E3" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3" s="262"/>
       <c r="G3" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H3" s="246"/>
       <c r="I3" s="253" t="s">
@@ -3368,19 +3368,19 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="125" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="165" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5" s="237">
         <v>20.3</v>
       </c>
       <c r="F5" s="231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="180">
         <f>G6+G9+G12</f>
@@ -3392,10 +3392,10 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="60"/>
@@ -3403,16 +3403,16 @@
         <v>0.3</v>
       </c>
       <c r="H6" s="179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="279" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="8"/>
@@ -3424,28 +3424,28 @@
       <c r="A8" s="8"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="60"/>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="263"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="C9" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="60"/>
@@ -3453,32 +3453,32 @@
         <v>11</v>
       </c>
       <c r="H9" s="179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="263"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="C10" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="60"/>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="263"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="8"/>
@@ -3489,10 +3489,10 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="C12" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="60"/>
@@ -3500,20 +3500,20 @@
         <v>21</v>
       </c>
       <c r="H12" s="179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="263"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="62"/>
@@ -3526,13 +3526,13 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C14" s="202" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="203" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="159"/>
       <c r="F14" s="118"/>
@@ -3542,25 +3542,25 @@
       </c>
       <c r="H14" s="68"/>
       <c r="I14" s="167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="77" t="s">
-        <v>247</v>
-      </c>
       <c r="D15" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="116">
         <v>20.3</v>
       </c>
       <c r="F15" s="238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="116">
         <f>G6+G9</f>
@@ -3568,12 +3568,12 @@
       </c>
       <c r="H15" s="66"/>
       <c r="I15" s="204" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="247" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="248"/>
       <c r="C17" s="248"/>
@@ -3587,19 +3587,19 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
       <c r="B18" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="125" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" s="237">
         <v>20.3</v>
       </c>
       <c r="F18" s="231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="180">
         <f>G19+G21+G25</f>
@@ -3611,10 +3611,10 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="60"/>
@@ -3622,16 +3622,16 @@
         <v>3.7</v>
       </c>
       <c r="H19" s="179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" s="279" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="8"/>
@@ -3643,10 +3643,10 @@
       <c r="A21" s="8"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="60"/>
@@ -3654,50 +3654,50 @@
         <v>15.1</v>
       </c>
       <c r="H21" s="179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" s="263"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="C22" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="60"/>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H22" s="179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I22" s="263"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="C23" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="60"/>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23" s="263"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="8"/>
@@ -3708,10 +3708,10 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="C25" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="60"/>
@@ -3719,20 +3719,20 @@
         <v>18.600000000000001</v>
       </c>
       <c r="H25" s="179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25" s="263"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="62"/>
@@ -3745,13 +3745,13 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" s="113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" s="202" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D27" s="203" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" s="159"/>
       <c r="F27" s="118"/>
@@ -3761,19 +3761,19 @@
       </c>
       <c r="H27" s="68"/>
       <c r="I27" s="167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="C28" s="77" t="s">
-        <v>247</v>
-      </c>
       <c r="D28" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="116">
         <v>20.3</v>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="H28" s="66"/>
       <c r="I28" s="204" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3793,26 +3793,26 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="230" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3845,7 +3845,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3858,7 +3858,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="148" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="255" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="275"/>
       <c r="C2" s="257" t="s">
@@ -3883,11 +3883,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="262"/>
       <c r="H2" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="246"/>
       <c r="J2" s="71" t="s">
@@ -3917,16 +3917,16 @@
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="198" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="125" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="134">
         <f>F5+F6+F12</f>
@@ -3946,10 +3946,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="60"/>
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="154" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="7"/>
     </row>
@@ -3967,31 +3967,31 @@
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F6" s="8">
         <v>3.8</v>
       </c>
       <c r="G6" s="136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="59">
         <v>11</v>
       </c>
       <c r="I6" s="154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="157" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -4003,16 +4003,16 @@
       </c>
       <c r="I7" s="154"/>
       <c r="J7" s="279" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="60"/>
@@ -4025,10 +4025,10 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="C9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="60"/>
@@ -4041,10 +4041,10 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="C10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="60"/>
@@ -4057,10 +4057,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="60"/>
@@ -4076,23 +4076,23 @@
         <v>6</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F12" s="59">
         <f>H12</f>
         <v>42.5</v>
       </c>
       <c r="G12" s="136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="59">
         <v>42.5</v>
       </c>
       <c r="I12" s="154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="7"/>
     </row>
@@ -4100,13 +4100,13 @@
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="62"/>
@@ -4120,13 +4120,13 @@
       <c r="A14" s="64"/>
       <c r="B14" s="46"/>
       <c r="C14" s="113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D14" s="202" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E14" s="203" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="159">
         <f>F4</f>
@@ -4139,20 +4139,20 @@
       </c>
       <c r="I14" s="68"/>
       <c r="J14" s="167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="D15" s="77" t="s">
-        <v>247</v>
-      </c>
       <c r="E15" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="116">
         <f>F5+F6</f>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="I15" s="66"/>
       <c r="J15" s="204" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4173,35 +4173,35 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4233,7 +4233,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,12 +4247,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="255" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="275"/>
       <c r="C2" s="257" t="s">
@@ -4263,11 +4263,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="262"/>
       <c r="H2" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="246"/>
       <c r="J2" s="71" t="s">
@@ -4297,16 +4297,16 @@
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="198" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="125" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="134">
         <f>F5+F6+F12</f>
@@ -4327,10 +4327,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F5" s="8"/>
       <c r="H5" s="220">
@@ -4338,7 +4338,7 @@
         <v>0.33599999999999941</v>
       </c>
       <c r="I5" s="154" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J5" s="60"/>
     </row>
@@ -4348,32 +4348,32 @@
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H6" s="156">
         <f>(13.9-2)/(13.9-2+0.6)*7</f>
         <v>6.6640000000000006</v>
       </c>
       <c r="I6" s="154" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J6" s="157" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -4385,16 +4385,16 @@
       </c>
       <c r="I7" s="154"/>
       <c r="J7" s="279" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="8"/>
@@ -4407,10 +4407,10 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="C9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="8"/>
@@ -4423,10 +4423,10 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="C10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
@@ -4439,10 +4439,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="8"/>
@@ -4458,22 +4458,22 @@
         <v>6</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F12" s="59">
         <v>42.5</v>
       </c>
       <c r="G12" s="154" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H12" s="59">
         <v>42.5</v>
       </c>
       <c r="I12" s="154" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J12" s="60"/>
     </row>
@@ -4481,13 +4481,13 @@
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
@@ -4501,13 +4501,13 @@
       <c r="A14" s="64"/>
       <c r="B14" s="46"/>
       <c r="C14" s="113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D14" s="202" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E14" s="203" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="159">
         <f>F4</f>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="I14" s="68"/>
       <c r="J14" s="167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="D15" s="77" t="s">
-        <v>247</v>
-      </c>
       <c r="E15" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="116">
         <f>F5+F6</f>
@@ -4546,45 +4546,45 @@
       </c>
       <c r="I15" s="66"/>
       <c r="J15" s="204" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" t="s">
         <v>230</v>
-      </c>
-      <c r="B21" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +4627,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="247" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="248"/>
       <c r="C2" s="248"/>
@@ -4647,11 +4647,11 @@
         <v>4</v>
       </c>
       <c r="E3" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3" s="262"/>
       <c r="G3" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H3" s="246"/>
       <c r="I3" s="253" t="s">
@@ -4679,20 +4679,20 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="165" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5" s="239">
         <f>8.62</f>
         <v>8.6199999999999992</v>
       </c>
       <c r="F5" s="231" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="180">
         <f>G6+G7</f>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="60"/>
@@ -4714,7 +4714,7 @@
         <v>2.35</v>
       </c>
       <c r="H6" s="161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I6" s="60"/>
     </row>
@@ -4722,10 +4722,10 @@
       <c r="A7" s="8"/>
       <c r="B7" s="56"/>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="60"/>
@@ -4733,17 +4733,17 @@
         <v>17.16</v>
       </c>
       <c r="H7" s="161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="C8" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="60"/>
@@ -4751,17 +4751,17 @@
         <v>16.440000000000001</v>
       </c>
       <c r="H8" s="161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="C9" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="60"/>
@@ -4769,17 +4769,17 @@
         <v>0.68</v>
       </c>
       <c r="H9" s="161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I9" s="60"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="C10" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="60"/>
@@ -4787,20 +4787,20 @@
         <v>0.04</v>
       </c>
       <c r="H10" s="161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I10" s="60"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="D11" s="57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="62"/>
@@ -4813,13 +4813,13 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
       <c r="B12" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="189" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="185">
         <f>E5</f>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="250" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="251"/>
       <c r="C14" s="251"/>
@@ -4849,20 +4849,20 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D15" s="165" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" s="240">
         <f>8.62</f>
         <v>8.6199999999999992</v>
       </c>
       <c r="F15" s="231" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="180">
         <f>G16+G17</f>
@@ -4874,10 +4874,10 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="60"/>
@@ -4885,17 +4885,17 @@
         <v>4.37</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="60"/>
@@ -4903,7 +4903,7 @@
         <v>15.73</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="60"/>
     </row>
@@ -4911,10 +4911,10 @@
       <c r="A18" s="8"/>
       <c r="B18" s="56"/>
       <c r="C18" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="60"/>
@@ -4922,7 +4922,7 @@
         <v>1.02</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="60"/>
     </row>
@@ -4930,10 +4930,10 @@
       <c r="A19" s="8"/>
       <c r="B19" s="56"/>
       <c r="C19" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="60"/>
@@ -4941,7 +4941,7 @@
         <v>14.71</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19" s="60"/>
     </row>
@@ -4949,31 +4949,31 @@
       <c r="A20" s="8"/>
       <c r="B20" s="56"/>
       <c r="C20" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="60"/>
       <c r="G20" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="60"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="164" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="62"/>
@@ -4986,13 +4986,13 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="82"/>
       <c r="B22" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C22" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" s="189" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E22" s="185">
         <f>E15</f>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="250" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="251"/>
       <c r="C24" s="251"/>
@@ -5022,19 +5022,19 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D25" s="165" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="239">
         <v>1.33</v>
       </c>
       <c r="F25" s="231" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="180">
         <f>G26+G27</f>
@@ -5046,10 +5046,10 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="60"/>
@@ -5057,7 +5057,7 @@
         <v>1.45</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I26" s="60"/>
     </row>
@@ -5065,10 +5065,10 @@
       <c r="A27" s="8"/>
       <c r="B27" s="56"/>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="60"/>
@@ -5076,7 +5076,7 @@
         <v>1.23</v>
       </c>
       <c r="H27" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I27" s="60"/>
     </row>
@@ -5084,10 +5084,10 @@
       <c r="A28" s="8"/>
       <c r="B28" s="56"/>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="60"/>
@@ -5095,7 +5095,7 @@
         <v>0.45</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I28" s="60"/>
     </row>
@@ -5103,10 +5103,10 @@
       <c r="A29" s="8"/>
       <c r="B29" s="56"/>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="60"/>
@@ -5114,7 +5114,7 @@
         <v>0.78</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I29" s="60"/>
     </row>
@@ -5122,31 +5122,31 @@
       <c r="A30" s="8"/>
       <c r="B30" s="56"/>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="60"/>
       <c r="G30" s="160" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="164" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="62"/>
@@ -5159,13 +5159,13 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="82"/>
       <c r="B32" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C32" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D32" s="189" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="185">
         <f>E25</f>
@@ -5191,34 +5191,34 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="230" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="230" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5249,8 +5249,8 @@
   </sheetPr>
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5290,11 +5290,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="262"/>
       <c r="H2" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="246"/>
       <c r="J2" s="71" t="s">
@@ -5324,16 +5324,16 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="78"/>
       <c r="B4" s="79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="87" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="241" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="242" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="243"/>
       <c r="G4" s="118"/>
@@ -5341,7 +5341,7 @@
         <v>2.5449999999999999</v>
       </c>
       <c r="I4" s="48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="7"/>
     </row>
@@ -5350,27 +5350,27 @@
       <c r="B5" s="79"/>
       <c r="C5" s="24"/>
       <c r="D5" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="230" t="s">
+        <v>184</v>
       </c>
       <c r="F5" s="98">
         <f>0.13*3.6/F7</f>
         <v>0.24761904761904766</v>
       </c>
       <c r="G5" s="119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" s="56">
         <f>(7.6+11.7)/2</f>
         <v>9.6499999999999986</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O5" s="137"/>
     </row>
@@ -5378,13 +5378,13 @@
       <c r="A6" s="74"/>
       <c r="B6" s="76"/>
       <c r="C6" s="88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E6" s="95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="103"/>
       <c r="G6" s="122"/>
@@ -5397,60 +5397,60 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="78"/>
       <c r="B7" s="79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="98">
         <v>1.89</v>
       </c>
       <c r="G7" s="119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" s="105">
         <f>(1.91+1.96)/2</f>
         <v>1.9350000000000001</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F8" s="98">
         <f>5.11*3.6</f>
         <v>18.396000000000001</v>
       </c>
       <c r="G8" s="119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="105">
         <f>50.6*52.2/(52.2+3.27)</f>
         <v>47.617090319091396</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J8" s="130" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -5458,99 +5458,98 @@
       <c r="B9" s="139"/>
       <c r="C9" s="140"/>
       <c r="D9" s="141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="142" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F9" s="143">
         <f>(0.49+0.39)*3.6</f>
         <v>3.1680000000000001</v>
       </c>
       <c r="G9" s="144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" s="145">
         <f>50.6*3.27/(52.2+3.27)-H10</f>
         <v>1.9907096809085991</v>
       </c>
       <c r="I9" s="146" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
       <c r="B10" s="79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F10" s="98">
         <f>(2+2.4)/2*0.33</f>
         <v>0.72600000000000009</v>
       </c>
       <c r="G10" s="119" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H10" s="105">
         <f>(2+2.4)/2*0.451</f>
         <v>0.99220000000000008</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F11" s="98">
-        <f>4.1*3.6</f>
-        <v>14.76</v>
-      </c>
-      <c r="G11" s="119" t="s">
-        <v>36</v>
+        <v>13.93</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="H11" s="98">
         <v>13.93</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="74"/>
       <c r="B12" s="76"/>
       <c r="C12" s="88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="93" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="103"/>
       <c r="G12" s="122"/>
@@ -5563,16 +5562,16 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
       <c r="B13" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="87" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="50" t="s">
         <v>22</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>23</v>
       </c>
       <c r="F13" s="102"/>
       <c r="G13" s="119"/>
@@ -5586,10 +5585,10 @@
       <c r="A14" s="78"/>
       <c r="B14" s="79"/>
       <c r="D14" s="96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F14" s="123"/>
       <c r="G14" s="119"/>
@@ -5598,7 +5597,7 @@
         <v>1.7333333333333332</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J14" s="7"/>
     </row>
@@ -5607,24 +5606,24 @@
       <c r="B15" s="79"/>
       <c r="C15" s="89"/>
       <c r="D15" s="48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F15" s="59">
         <f>0.33*3.6</f>
         <v>1.1880000000000002</v>
       </c>
       <c r="G15" s="119" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H15" s="6">
         <f>3.9*7.2/12.96</f>
         <v>2.1666666666666665</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J15" s="7"/>
     </row>
@@ -5632,13 +5631,13 @@
       <c r="A16" s="74"/>
       <c r="B16" s="76"/>
       <c r="C16" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="106" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" s="95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="103"/>
       <c r="G16" s="122"/>
@@ -5652,20 +5651,20 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
       <c r="B17" s="79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="80" t="s">
-        <v>183</v>
-      </c>
       <c r="E17" s="81" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F17" s="100">
         <f>F5*F7+F8+F9+F10+F11+F15</f>
-        <v>38.706000000000003</v>
+        <v>37.876000000000005</v>
       </c>
       <c r="G17" s="118"/>
       <c r="H17" s="100">
@@ -5681,10 +5680,10 @@
         <v>6</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F18" s="98"/>
       <c r="G18" s="119"/>
@@ -5693,7 +5692,7 @@
         <v>49.35042365242473</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J18" s="7"/>
     </row>
@@ -5705,7 +5704,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F19" s="98"/>
       <c r="G19" s="119"/>
@@ -5714,7 +5713,7 @@
         <v>0.99220000000000008</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J19" s="7"/>
     </row>
@@ -5722,10 +5721,10 @@
       <c r="A20" s="8"/>
       <c r="C20" s="24"/>
       <c r="D20" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F20" s="98"/>
       <c r="G20" s="119"/>
@@ -5734,16 +5733,16 @@
         <v>13.807376347575264</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J20" s="130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="C21" s="110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
@@ -5754,19 +5753,19 @@
         <v>1</v>
       </c>
       <c r="I21" s="70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="263" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="C22" s="110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="101"/>
       <c r="G22" s="119"/>
@@ -5774,17 +5773,17 @@
         <v>1</v>
       </c>
       <c r="I22" s="70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="263"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="C23" s="110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="101"/>
       <c r="G23" s="119"/>
@@ -5792,17 +5791,17 @@
         <v>1</v>
       </c>
       <c r="I23" s="70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="263"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="C24" s="110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="101"/>
       <c r="G24" s="119"/>
@@ -5814,10 +5813,10 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="C25" s="110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="101"/>
       <c r="G25" s="119"/>
@@ -5830,10 +5829,10 @@
       <c r="A26" s="8"/>
       <c r="C26" s="24"/>
       <c r="D26" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F26" s="98"/>
       <c r="G26" s="119"/>
@@ -5842,7 +5841,7 @@
         <v>13.93</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" s="7"/>
     </row>
@@ -5850,13 +5849,13 @@
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="F27" s="158"/>
       <c r="G27" s="122"/>
@@ -5870,13 +5869,13 @@
       <c r="A28" s="64"/>
       <c r="B28" s="46"/>
       <c r="C28" s="112" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="182" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="50" t="s">
         <v>184</v>
-      </c>
-      <c r="D28" s="182" t="s">
-        <v>247</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>185</v>
       </c>
       <c r="F28" s="159">
         <f>F29+F30</f>
@@ -5889,19 +5888,19 @@
       </c>
       <c r="I28" s="68"/>
       <c r="J28" s="167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="C29" s="112" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="50" t="s">
         <v>184</v>
-      </c>
-      <c r="D29" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>185</v>
       </c>
       <c r="F29" s="59">
         <f>F8</f>
@@ -5914,20 +5913,20 @@
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="130" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="95" t="s">
         <v>184</v>
-      </c>
-      <c r="D30" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="95" t="s">
-        <v>185</v>
       </c>
       <c r="F30" s="116">
         <f>F5*F7+F9+F10+F15</f>
@@ -5940,7 +5939,7 @@
       </c>
       <c r="I30" s="66"/>
       <c r="J30" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5951,7 +5950,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="83"/>
       <c r="C32" s="109"/>
@@ -5965,10 +5964,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="256" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="265" t="s">
         <v>24</v>
-      </c>
-      <c r="B33" s="265" t="s">
-        <v>25</v>
       </c>
       <c r="C33" s="258" t="s">
         <v>2</v>
@@ -5978,11 +5977,11 @@
         <v>4</v>
       </c>
       <c r="F33" s="271" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G33" s="272"/>
       <c r="H33" s="273" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I33" s="274"/>
       <c r="J33" s="71" t="s">
@@ -6012,16 +6011,16 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="73"/>
       <c r="B35" s="75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35" s="121" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="129" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E35" s="125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F35" s="132"/>
       <c r="G35" s="118"/>
@@ -6030,21 +6029,21 @@
         <v>1.0705</v>
       </c>
       <c r="I35" s="118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="78"/>
       <c r="B36" s="79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C36" s="50"/>
       <c r="D36" s="96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="126" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F36" s="132"/>
       <c r="G36" s="119"/>
@@ -6053,51 +6052,51 @@
         <v>0.41666666666666663</v>
       </c>
       <c r="I36" s="119" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="78"/>
       <c r="B37" s="79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C37" s="111"/>
       <c r="D37" s="96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="126" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F37" s="132">
         <f>0.39*3.6</f>
         <v>1.4040000000000001</v>
       </c>
       <c r="G37" s="119" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H37" s="132">
         <f>2.5*9/(1.8+9)</f>
         <v>2.083333333333333</v>
       </c>
       <c r="I37" s="119" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="74"/>
       <c r="B38" s="76"/>
       <c r="C38" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="106" t="s">
+      <c r="E38" s="127" t="s">
         <v>22</v>
-      </c>
-      <c r="E38" s="127" t="s">
-        <v>23</v>
       </c>
       <c r="F38" s="133"/>
       <c r="G38" s="122"/>
@@ -6110,16 +6109,16 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="78"/>
       <c r="B39" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C39" s="87" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="126" t="s">
         <v>22</v>
-      </c>
-      <c r="E39" s="126" t="s">
-        <v>23</v>
       </c>
       <c r="F39" s="131"/>
       <c r="G39" s="86"/>
@@ -6133,10 +6132,10 @@
       <c r="A40" s="78"/>
       <c r="B40" s="79"/>
       <c r="D40" s="96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" s="126" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F40" s="132"/>
       <c r="G40" s="86"/>
@@ -6145,7 +6144,7 @@
         <v>1.7333333333333332</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J40" s="7"/>
     </row>
@@ -6154,40 +6153,40 @@
       <c r="B41" s="79"/>
       <c r="C41" s="89"/>
       <c r="D41" s="48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="126" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F41" s="59">
         <f>0.33*3.6</f>
         <v>1.1880000000000002</v>
       </c>
       <c r="G41" s="119" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H41" s="59">
         <f>3.9*7.2/12.96</f>
         <v>2.1666666666666665</v>
       </c>
       <c r="I41" s="119" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="74"/>
       <c r="B42" s="76"/>
       <c r="C42" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="106" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E42" s="128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F42" s="133"/>
       <c r="G42" s="72"/>
@@ -6200,16 +6199,16 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="78"/>
       <c r="B43" s="79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C43" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D43" s="80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E43" s="81" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F43" s="134">
         <f>F44+F45</f>
@@ -6229,10 +6228,10 @@
         <v>6</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="91" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F44" s="59"/>
       <c r="G44" s="60"/>
@@ -6241,7 +6240,7 @@
         <v>2.15</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J44" s="7"/>
     </row>
@@ -6249,10 +6248,10 @@
       <c r="A45" s="8"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="91" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F45" s="59">
         <f>F37+F41</f>
@@ -6264,16 +6263,16 @@
         <v>4.25</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="C46" s="110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>7</v>
@@ -6285,19 +6284,19 @@
         <v>1</v>
       </c>
       <c r="I46" s="53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J46" s="263" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="C47" s="110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" s="91"/>
       <c r="F47" s="61"/>
@@ -6306,17 +6305,17 @@
         <v>1</v>
       </c>
       <c r="I47" s="53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J47" s="263"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="C48" s="110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="91"/>
       <c r="F48" s="61"/>
@@ -6325,17 +6324,17 @@
         <v>1</v>
       </c>
       <c r="I48" s="53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J48" s="263"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="C49" s="110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49" s="91"/>
       <c r="F49" s="61"/>
@@ -6349,10 +6348,10 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="C50" s="110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" s="91"/>
       <c r="F50" s="61"/>
@@ -6367,13 +6366,13 @@
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
       <c r="C51" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="E51" s="92" t="s">
         <v>22</v>
-      </c>
-      <c r="E51" s="92" t="s">
-        <v>23</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="62"/>
@@ -6387,13 +6386,13 @@
       <c r="A52" s="64"/>
       <c r="B52" s="46"/>
       <c r="C52" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="182" t="s">
+        <v>246</v>
+      </c>
+      <c r="E52" s="114" t="s">
         <v>184</v>
-      </c>
-      <c r="D52" s="182" t="s">
-        <v>247</v>
-      </c>
-      <c r="E52" s="114" t="s">
-        <v>185</v>
       </c>
       <c r="F52" s="159">
         <f>F53+F54</f>
@@ -6406,19 +6405,19 @@
       </c>
       <c r="I52" s="68"/>
       <c r="J52" s="167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="C53" s="112" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="50" t="s">
         <v>184</v>
-      </c>
-      <c r="D53" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="50" t="s">
-        <v>185</v>
       </c>
       <c r="F53" s="59"/>
       <c r="G53" s="60"/>
@@ -6433,13 +6432,13 @@
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="95" t="s">
         <v>184</v>
-      </c>
-      <c r="D54" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="95" t="s">
-        <v>185</v>
       </c>
       <c r="F54" s="116">
         <f>F37+F41</f>
@@ -6452,7 +6451,7 @@
       </c>
       <c r="I54" s="66"/>
       <c r="J54" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -6467,76 +6466,76 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="D58" s="50"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" s="230" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6577,8 +6576,8 @@
   </sheetPr>
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6604,10 +6603,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="255" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="275" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="257" t="s">
         <v>2</v>
@@ -6617,11 +6616,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="262"/>
       <c r="H2" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="246"/>
       <c r="J2" s="71" t="s">
@@ -6651,16 +6650,16 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="78"/>
       <c r="B4" s="75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F4" s="64">
         <f>F5+F6</f>
@@ -6680,10 +6679,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F5" s="8"/>
       <c r="H5" s="59">
@@ -6691,7 +6690,7 @@
         <v>2.3679999999999999</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="7"/>
     </row>
@@ -6701,32 +6700,32 @@
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F6" s="8">
         <v>2.2000000000000002</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="59">
         <f>(4.5-1.3)*0.26</f>
         <v>0.83200000000000007</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -6737,16 +6736,16 @@
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="263" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="8"/>
       <c r="H8" s="61">
@@ -6758,10 +6757,10 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="C9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="8"/>
       <c r="H9" s="61">
@@ -6773,10 +6772,10 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="C10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="8"/>
       <c r="H10" s="61">
@@ -6787,10 +6786,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="8"/>
       <c r="H11" s="61">
@@ -6802,13 +6801,13 @@
       <c r="A12" s="11"/>
       <c r="B12" s="147"/>
       <c r="C12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
@@ -6822,13 +6821,13 @@
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D13" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="116">
         <f>F4</f>
@@ -6841,7 +6840,7 @@
       </c>
       <c r="I13" s="66"/>
       <c r="J13" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -6850,10 +6849,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="255" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="275" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C15" s="257" t="s">
         <v>2</v>
@@ -6863,11 +6862,11 @@
         <v>4</v>
       </c>
       <c r="F15" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G15" s="262"/>
       <c r="H15" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I15" s="246"/>
       <c r="J15" s="71" t="s">
@@ -6897,16 +6896,16 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
       <c r="B17" s="75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F17" s="67">
         <f>F18+F19</f>
@@ -6927,10 +6926,10 @@
         <v>6</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="60"/>
@@ -6939,7 +6938,7 @@
         <v>1.9530000000000003</v>
       </c>
       <c r="I18" s="154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18" s="7"/>
     </row>
@@ -6949,33 +6948,33 @@
         <v>6</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F19" s="59">
         <f>0.604*1.05506</f>
         <v>0.63725624000000003</v>
       </c>
       <c r="G19" s="119" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H19" s="59">
         <f>(4.4-1.3)*0.37</f>
         <v>1.1470000000000002</v>
       </c>
       <c r="I19" s="154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="C20" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>7</v>
@@ -6987,16 +6986,16 @@
       </c>
       <c r="I20" s="154"/>
       <c r="J20" s="263" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="C21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="60"/>
@@ -7009,10 +7008,10 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="C22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="60"/>
@@ -7025,10 +7024,10 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="C23" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="60"/>
@@ -7041,10 +7040,10 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="C24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="60"/>
@@ -7058,13 +7057,13 @@
       <c r="A25" s="11"/>
       <c r="B25" s="147"/>
       <c r="C25" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="62"/>
@@ -7078,13 +7077,13 @@
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D26" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E26" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F26" s="116">
         <f>F17</f>
@@ -7097,7 +7096,7 @@
       </c>
       <c r="I26" s="66"/>
       <c r="J26" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -7106,10 +7105,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="255" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B28" s="275" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" s="257" t="s">
         <v>2</v>
@@ -7119,11 +7118,11 @@
         <v>4</v>
       </c>
       <c r="F28" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G28" s="262"/>
       <c r="H28" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I28" s="246"/>
       <c r="J28" s="71" t="s">
@@ -7153,16 +7152,16 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="65"/>
@@ -7171,7 +7170,7 @@
         <v>0.51891891891891895</v>
       </c>
       <c r="I30" s="152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J30" s="7"/>
     </row>
@@ -7181,40 +7180,40 @@
         <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F31" s="59">
         <f>718.22*3600/10^6-F6</f>
         <v>0.38559199999999993</v>
       </c>
       <c r="G31" s="119" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H31" s="153">
         <f>1.3*0.6</f>
         <v>0.78</v>
       </c>
       <c r="I31" s="154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="147"/>
       <c r="C32" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32" s="116"/>
       <c r="G32" s="62"/>
@@ -7227,16 +7226,16 @@
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="78"/>
       <c r="B33" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C33" s="87" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F33" s="98"/>
       <c r="G33" s="119"/>
@@ -7250,10 +7249,10 @@
       <c r="A34" s="78"/>
       <c r="B34" s="79"/>
       <c r="D34" s="96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F34" s="123"/>
       <c r="G34" s="119"/>
@@ -7262,7 +7261,7 @@
         <v>1.625</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J34" s="7"/>
     </row>
@@ -7271,40 +7270,40 @@
       <c r="B35" s="79"/>
       <c r="C35" s="89"/>
       <c r="D35" s="48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F35" s="59">
         <f>0.469*1.05506</f>
         <v>0.49482313999999999</v>
       </c>
       <c r="G35" s="119" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H35" s="59">
         <f>3.9*7.56/12.96</f>
         <v>2.2749999999999999</v>
       </c>
       <c r="I35" s="119" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="74"/>
       <c r="B36" s="76"/>
       <c r="C36" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E36" s="95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" s="173"/>
       <c r="G36" s="122"/>
@@ -7318,16 +7317,16 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="78"/>
       <c r="B37" s="75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F37" s="134">
         <f>F38+F39</f>
@@ -7345,16 +7344,16 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F38" s="59"/>
       <c r="G38" s="60"/>
@@ -7363,7 +7362,7 @@
         <v>2.1439189189189189</v>
       </c>
       <c r="I38" s="154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J38" s="7"/>
     </row>
@@ -7373,10 +7372,10 @@
         <v>6</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F39" s="59">
         <f>F31+F35</f>
@@ -7388,16 +7387,16 @@
         <v>3.0549999999999997</v>
       </c>
       <c r="I39" s="154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="C40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>7</v>
@@ -7409,16 +7408,16 @@
       </c>
       <c r="I40" s="154"/>
       <c r="J40" s="263" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="C41" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="60"/>
@@ -7431,10 +7430,10 @@
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="C42" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="60"/>
@@ -7447,10 +7446,10 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="C43" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="60"/>
@@ -7463,10 +7462,10 @@
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="C44" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="60"/>
@@ -7480,13 +7479,13 @@
       <c r="A45" s="11"/>
       <c r="B45" s="147"/>
       <c r="C45" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="62"/>
@@ -7500,13 +7499,13 @@
       <c r="A46" s="64"/>
       <c r="B46" s="46"/>
       <c r="C46" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="182" t="s">
+        <v>246</v>
+      </c>
+      <c r="E46" s="114" t="s">
         <v>184</v>
-      </c>
-      <c r="D46" s="182" t="s">
-        <v>247</v>
-      </c>
-      <c r="E46" s="114" t="s">
-        <v>185</v>
       </c>
       <c r="F46" s="159">
         <f>F47+F48</f>
@@ -7519,20 +7518,20 @@
       </c>
       <c r="I46" s="68"/>
       <c r="J46" s="167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47"/>
       <c r="C47" s="112" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="50" t="s">
         <v>184</v>
-      </c>
-      <c r="D47" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>185</v>
       </c>
       <c r="F47" s="192"/>
       <c r="G47" s="119"/>
@@ -7547,13 +7546,13 @@
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="95" t="s">
         <v>184</v>
-      </c>
-      <c r="D48" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="95" t="s">
-        <v>185</v>
       </c>
       <c r="F48" s="116">
         <f>F39</f>
@@ -7566,7 +7565,7 @@
       </c>
       <c r="I48" s="66"/>
       <c r="J48" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -7575,10 +7574,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="255" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="275" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" s="257" t="s">
         <v>2</v>
@@ -7588,11 +7587,11 @@
         <v>4</v>
       </c>
       <c r="F50" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G50" s="262"/>
       <c r="H50" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I50" s="246"/>
       <c r="J50" s="71" t="s">
@@ -7622,16 +7621,16 @@
     <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F52" s="64"/>
       <c r="G52" s="65"/>
@@ -7640,7 +7639,7 @@
         <v>0.89391891891891884</v>
       </c>
       <c r="I52" s="152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J52" s="7"/>
     </row>
@@ -7650,40 +7649,40 @@
         <v>6</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F53" s="59">
         <f>2*96485*0.89/10^9 * (1/63.546*10^6)/0.95</f>
         <v>2.844906383606074</v>
       </c>
       <c r="G53" s="60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H53" s="153">
         <f>4.5*14.7/11.1*0.85</f>
         <v>5.0655405405405398</v>
       </c>
       <c r="I53" s="154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="147"/>
       <c r="C54" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="62"/>
@@ -7696,16 +7695,16 @@
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="78"/>
       <c r="B55" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C55" s="87" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E55" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F55" s="120"/>
       <c r="G55" s="119"/>
@@ -7719,10 +7718,10 @@
       <c r="A56" s="78"/>
       <c r="B56" s="79"/>
       <c r="D56" s="96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F56" s="120"/>
       <c r="G56" s="119"/>
@@ -7731,7 +7730,7 @@
         <v>1.625</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J56" s="7"/>
     </row>
@@ -7740,40 +7739,40 @@
       <c r="B57" s="79"/>
       <c r="C57" s="89"/>
       <c r="D57" s="48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="50" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F57" s="153">
         <f>0.469*1.05506</f>
         <v>0.49482313999999999</v>
       </c>
       <c r="G57" s="119" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H57" s="59">
         <f>3.9*7.56/12.96</f>
         <v>2.2749999999999999</v>
       </c>
       <c r="I57" s="119" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="74"/>
       <c r="B58" s="76"/>
       <c r="C58" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58" s="106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E58" s="95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F58" s="172"/>
       <c r="G58" s="122"/>
@@ -7787,16 +7786,16 @@
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="78"/>
       <c r="B59" s="75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F59" s="134">
         <f>F60+F61</f>
@@ -7814,16 +7813,16 @@
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="117" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F60" s="153"/>
       <c r="G60" s="60"/>
@@ -7832,23 +7831,23 @@
         <v>2.5189189189189189</v>
       </c>
       <c r="I60" s="154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="117" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="F61" s="153">
         <f>F53+F57</f>
@@ -7859,19 +7858,19 @@
         <v>7.3405405405405393</v>
       </c>
       <c r="I61" s="154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="117" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>7</v>
@@ -7883,19 +7882,19 @@
       </c>
       <c r="I62" s="154"/>
       <c r="J62" s="263" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" s="153"/>
       <c r="G63" s="60"/>
@@ -7908,10 +7907,10 @@
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="C64" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F64" s="153"/>
       <c r="G64" s="60"/>
@@ -7924,10 +7923,10 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="C65" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F65" s="153"/>
       <c r="G65" s="60"/>
@@ -7940,10 +7939,10 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="C66" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="60"/>
@@ -7957,13 +7956,13 @@
       <c r="A67" s="11"/>
       <c r="B67" s="147"/>
       <c r="C67" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="62"/>
@@ -7977,13 +7976,13 @@
       <c r="A68" s="64"/>
       <c r="B68" s="46"/>
       <c r="C68" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="182" t="s">
+        <v>246</v>
+      </c>
+      <c r="E68" s="114" t="s">
         <v>184</v>
-      </c>
-      <c r="D68" s="182" t="s">
-        <v>247</v>
-      </c>
-      <c r="E68" s="114" t="s">
-        <v>185</v>
       </c>
       <c r="F68" s="159">
         <f>F69+F70</f>
@@ -7996,20 +7995,20 @@
       </c>
       <c r="I68" s="68"/>
       <c r="J68" s="167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69"/>
       <c r="C69" s="112" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="50" t="s">
         <v>184</v>
-      </c>
-      <c r="D69" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="50" t="s">
-        <v>185</v>
       </c>
       <c r="F69" s="192"/>
       <c r="G69" s="119"/>
@@ -8024,13 +8023,13 @@
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="95" t="s">
         <v>184</v>
-      </c>
-      <c r="D70" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="95" t="s">
-        <v>185</v>
       </c>
       <c r="F70" s="116">
         <f>F61</f>
@@ -8043,73 +8042,73 @@
       </c>
       <c r="I70" s="66"/>
       <c r="J70" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="B73" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B74" s="55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76" s="230" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" s="230" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" s="230" t="s">
+        <v>279</v>
+      </c>
+      <c r="C78" s="51" t="s">
         <v>224</v>
-      </c>
-      <c r="B78" s="230" t="s">
-        <v>281</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -8122,16 +8121,16 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B81" s="50"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B82" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -8139,6 +8138,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="J62:J66"/>
     <mergeCell ref="J40:J44"/>
     <mergeCell ref="H2:I2"/>
@@ -8155,22 +8170,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:G28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C73" r:id="rId1" xr:uid="{6EA70C95-47C6-405C-AD1C-397EC82D1346}"/>
@@ -8219,10 +8218,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="255" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="277" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C2" s="257" t="s">
         <v>2</v>
@@ -8232,11 +8231,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="262"/>
       <c r="H2" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="246"/>
       <c r="J2" s="71" t="s">
@@ -8266,13 +8265,13 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="C4" s="181" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="149">
         <f>F14</f>
@@ -8293,23 +8292,23 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F5" s="59">
         <f>(1.65+1.8)/2</f>
         <v>1.7250000000000001</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" s="169">
         <v>2.9</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="7"/>
     </row>
@@ -8317,7 +8316,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -8330,17 +8329,17 @@
       </c>
       <c r="I6" s="52"/>
       <c r="J6" s="263" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="2"/>
       <c r="C7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="8"/>
@@ -8355,10 +8354,10 @@
       <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="8"/>
@@ -8373,10 +8372,10 @@
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
       <c r="C9" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="8"/>
@@ -8391,10 +8390,10 @@
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
@@ -8412,10 +8411,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="60"/>
@@ -8423,7 +8422,7 @@
         <v>0.216</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="58"/>
@@ -8432,13 +8431,13 @@
       <c r="A12" s="4"/>
       <c r="B12" s="2"/>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="60"/>
@@ -8446,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="7"/>
       <c r="L12" s="229"/>
@@ -8455,13 +8454,13 @@
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>68</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="62"/>
@@ -8470,7 +8469,7 @@
         <v>0.54054054054054057</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="14"/>
     </row>
@@ -8478,13 +8477,13 @@
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D14" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14" s="187" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="116">
         <f>F5</f>
@@ -8497,7 +8496,7 @@
       </c>
       <c r="I14" s="66"/>
       <c r="J14" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -8511,10 +8510,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="255" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="277" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="257" t="s">
         <v>2</v>
@@ -8524,11 +8523,11 @@
         <v>4</v>
       </c>
       <c r="F16" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G16" s="262"/>
       <c r="H16" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I16" s="246"/>
       <c r="J16" s="71" t="s">
@@ -8558,20 +8557,20 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
       <c r="C18" s="181" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="129" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" s="149">
         <f>17*0.0036</f>
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H18" s="195">
         <f>H19</f>
@@ -8587,10 +8586,10 @@
         <v>6</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="60"/>
@@ -8598,7 +8597,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I19" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="7"/>
     </row>
@@ -8609,10 +8608,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="60"/>
@@ -8620,7 +8619,7 @@
         <v>0.6</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20" s="7"/>
     </row>
@@ -8628,13 +8627,13 @@
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="62"/>
@@ -8642,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" s="14"/>
     </row>
@@ -8650,13 +8649,13 @@
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D22" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" s="187" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="116">
         <f>F18</f>
@@ -8669,50 +8668,50 @@
       </c>
       <c r="I22" s="66"/>
       <c r="J22" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>28</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>29</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>30</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>31</v>
-      </c>
-      <c r="H27" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28" s="2">
         <v>2001</v>
@@ -8721,21 +8720,21 @@
         <v>45232</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="2">
@@ -8745,24 +8744,24 @@
         <v>45232</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="48" t="s">
-        <v>139</v>
-      </c>
       <c r="E30" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" s="2">
         <v>2011</v>
@@ -8771,24 +8770,24 @@
         <v>45232</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>144</v>
-      </c>
       <c r="E31" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F31" s="2">
         <v>2019</v>
@@ -8797,21 +8796,21 @@
         <v>45232</v>
       </c>
       <c r="H31" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="244" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" t="s">
         <v>262</v>
-      </c>
-      <c r="C32" s="244" t="s">
-        <v>263</v>
-      </c>
-      <c r="D32" t="s">
-        <v>264</v>
       </c>
       <c r="F32" s="2">
         <v>2017</v>
@@ -8826,16 +8825,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B33" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33" t="s">
         <v>265</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33" t="s">
-        <v>267</v>
       </c>
       <c r="F33" s="2">
         <v>2013</v>
@@ -8844,7 +8843,7 @@
         <v>45919</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -8895,7 +8894,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="247" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="248"/>
       <c r="C2" s="248"/>
@@ -8915,11 +8914,11 @@
         <v>4</v>
       </c>
       <c r="E3" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3" s="262"/>
       <c r="G3" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H3" s="246"/>
       <c r="I3" s="253" t="s">
@@ -8948,13 +8947,13 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="181" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5" s="234">
         <f>SUM(E6:E7)</f>
@@ -8971,59 +8970,59 @@
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="235">
         <f>3/0.75-3</f>
         <v>1</v>
       </c>
       <c r="F6" s="236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>1.24</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="233">
         <f>3</f>
         <v>3</v>
       </c>
       <c r="F7" s="236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>4.16</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="60"/>
@@ -9032,21 +9031,21 @@
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="279" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="60"/>
       <c r="G9" s="160" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="279"/>
@@ -9054,15 +9053,15 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="60"/>
       <c r="G10" s="160" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="52"/>
       <c r="I10" s="279"/>
@@ -9070,15 +9069,15 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="60"/>
       <c r="G11" s="160" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="279"/>
@@ -9086,13 +9085,13 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D12" s="106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="62"/>
@@ -9105,13 +9104,13 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
       <c r="B13" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C13" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="196" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="185">
         <v>4</v>
@@ -9123,12 +9122,12 @@
       </c>
       <c r="H13" s="187"/>
       <c r="I13" s="188" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="247" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="248"/>
       <c r="C15" s="248"/>
@@ -9148,11 +9147,11 @@
         <v>4</v>
       </c>
       <c r="E16" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F16" s="262"/>
       <c r="G16" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H16" s="281"/>
       <c r="I16" s="253" t="s">
@@ -9181,13 +9180,13 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
       <c r="B18" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" s="234">
         <f>SUM(E19:E20)</f>
@@ -9204,26 +9203,26 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19" s="235">
         <f>3/0.75-3</f>
         <v>1</v>
       </c>
       <c r="F19" s="236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="8">
         <v>3.03</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" s="208"/>
     </row>
@@ -9231,33 +9230,33 @@
       <c r="A20" s="8"/>
       <c r="B20" s="56"/>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E20" s="233">
         <f>3</f>
         <v>3</v>
       </c>
       <c r="F20" s="236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="8">
         <v>7.59</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="60"/>
@@ -9266,21 +9265,21 @@
       </c>
       <c r="H21" s="161"/>
       <c r="I21" s="279" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="60"/>
       <c r="G22" s="160" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H22" s="161"/>
       <c r="I22" s="279"/>
@@ -9288,15 +9287,15 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="60"/>
       <c r="G23" s="160" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H23" s="161"/>
       <c r="I23" s="279"/>
@@ -9304,15 +9303,15 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="60"/>
       <c r="G24" s="160" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H24" s="161"/>
       <c r="I24" s="279"/>
@@ -9320,13 +9319,13 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D25" s="106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="62"/>
@@ -9339,13 +9338,13 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="82"/>
       <c r="B26" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26" s="196" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E26" s="185">
         <f>E19</f>
@@ -9358,31 +9357,31 @@
       </c>
       <c r="H26" s="187"/>
       <c r="I26" s="188" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="230" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B31" s="230" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -9432,7 +9431,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="247" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="248"/>
       <c r="C2" s="248"/>
@@ -9452,11 +9451,11 @@
         <v>4</v>
       </c>
       <c r="E3" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3" s="262"/>
       <c r="G3" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H3" s="246"/>
       <c r="I3" s="253" t="s">
@@ -9485,13 +9484,13 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5" s="149"/>
       <c r="F5" s="26"/>
@@ -9505,13 +9504,13 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="60"/>
@@ -9519,39 +9518,39 @@
         <v>0.22</v>
       </c>
       <c r="H6" s="161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="8">
         <v>3.18</v>
       </c>
       <c r="F7" s="236" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="8">
         <v>4.25</v>
       </c>
       <c r="H7" s="161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="60"/>
@@ -9560,16 +9559,16 @@
       </c>
       <c r="H8" s="161"/>
       <c r="I8" s="279" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="60"/>
@@ -9582,10 +9581,10 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="60"/>
@@ -9598,10 +9597,10 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="60"/>
@@ -9614,13 +9613,13 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="62"/>
@@ -9633,13 +9632,13 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
       <c r="B13" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C13" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="196" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="185">
         <v>3.18</v>
@@ -9651,15 +9650,15 @@
       </c>
       <c r="H13" s="187"/>
       <c r="I13" s="188" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -9689,7 +9688,7 @@
   </sheetPr>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -9721,10 +9720,10 @@
     </row>
     <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="255" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="275" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="257" t="s">
         <v>2</v>
@@ -9734,11 +9733,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="262"/>
       <c r="H2" s="282" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="283"/>
       <c r="J2" s="124" t="s">
@@ -9768,20 +9767,20 @@
     <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="C4" s="181" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="149">
         <f>(1.71+2.15+0.93)*1.05</f>
         <v>5.0295000000000005</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H4" s="195">
         <f>H5+H12</f>
@@ -9796,10 +9795,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="28"/>
@@ -9807,14 +9806,14 @@
         <v>12.6</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="205"/>
     </row>
     <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="210"/>
       <c r="C6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -9826,16 +9825,16 @@
       </c>
       <c r="I6" s="211"/>
       <c r="J6" s="279" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="C7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="28"/>
@@ -9848,10 +9847,10 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="C8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="28"/>
@@ -9864,10 +9863,10 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="28"/>
@@ -9880,10 +9879,10 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="28"/>
@@ -9896,10 +9895,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="C11" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="28"/>
@@ -9915,10 +9914,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="28"/>
@@ -9926,20 +9925,20 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" s="205"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="28"/>
@@ -9947,7 +9946,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="205"/>
     </row>
@@ -9955,13 +9954,13 @@
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
       <c r="C14" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="66"/>
@@ -9969,7 +9968,7 @@
         <v>22</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" s="207"/>
     </row>
@@ -9977,13 +9976,13 @@
       <c r="A15" s="82"/>
       <c r="B15" s="83"/>
       <c r="C15" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D15" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" s="187" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="212">
         <f>F4</f>
@@ -9996,7 +9995,7 @@
       </c>
       <c r="I15" s="187"/>
       <c r="J15" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -10013,10 +10012,10 @@
     </row>
     <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="255" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="275" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="257" t="s">
         <v>2</v>
@@ -10026,11 +10025,11 @@
         <v>4</v>
       </c>
       <c r="F17" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G17" s="262"/>
       <c r="H17" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I17" s="246"/>
       <c r="J17" s="124" t="s">
@@ -10060,20 +10059,20 @@
     <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46"/>
       <c r="C19" s="181" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" s="149">
         <f>0.71*1.05</f>
         <v>0.74549999999999994</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H19" s="195">
         <f>H20+H27</f>
@@ -10088,10 +10087,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="28"/>
@@ -10099,14 +10098,14 @@
         <v>-1.2</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" s="205"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="210"/>
       <c r="C21" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
@@ -10118,16 +10117,16 @@
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="279" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="28"/>
@@ -10140,10 +10139,10 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="28"/>
@@ -10156,10 +10155,10 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="28"/>
@@ -10172,10 +10171,10 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="28"/>
@@ -10188,10 +10187,10 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="28"/>
@@ -10207,10 +10206,10 @@
         <v>6</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="28"/>
@@ -10218,7 +10217,7 @@
         <v>7.9</v>
       </c>
       <c r="I27" s="53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J27" s="205"/>
     </row>
@@ -10226,13 +10225,13 @@
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="66"/>
@@ -10240,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J28" s="207"/>
     </row>
@@ -10248,13 +10247,13 @@
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D29" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E29" s="187" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" s="116">
         <f>F19</f>
@@ -10267,7 +10266,7 @@
       </c>
       <c r="I29" s="66"/>
       <c r="J29" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -10284,10 +10283,10 @@
     </row>
     <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="255" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="275" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="257" t="s">
         <v>2</v>
@@ -10297,11 +10296,11 @@
         <v>4</v>
       </c>
       <c r="F31" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G31" s="262"/>
       <c r="H31" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I31" s="246"/>
       <c r="J31" s="124" t="s">
@@ -10331,20 +10330,20 @@
     <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="C33" s="181" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F33" s="149">
         <f>H33</f>
         <v>1.4300000000000002</v>
       </c>
       <c r="G33" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H33" s="195">
         <f>H35+H41</f>
@@ -10358,10 +10357,10 @@
         <v>6</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="28"/>
@@ -10369,7 +10368,7 @@
         <v>1.23</v>
       </c>
       <c r="I34" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J34" s="205"/>
     </row>
@@ -10379,10 +10378,10 @@
         <v>6</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="28"/>
@@ -10390,17 +10389,17 @@
         <v>0.5</v>
       </c>
       <c r="I35" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J35" s="205"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="C36" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="28"/>
@@ -10409,16 +10408,16 @@
       </c>
       <c r="I36" s="52"/>
       <c r="J36" s="279" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="C37" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="28"/>
@@ -10431,10 +10430,10 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="C38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="28"/>
@@ -10447,10 +10446,10 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="C39" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="28"/>
@@ -10463,10 +10462,10 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="C40" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="28"/>
@@ -10482,10 +10481,10 @@
         <v>6</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="28"/>
@@ -10493,7 +10492,7 @@
         <v>0.93</v>
       </c>
       <c r="I41" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J41" s="208"/>
     </row>
@@ -10501,13 +10500,13 @@
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="66"/>
@@ -10515,7 +10514,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J42" s="207"/>
     </row>
@@ -10523,13 +10522,13 @@
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D43" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E43" s="187" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" s="116">
         <f>F33</f>
@@ -10542,7 +10541,7 @@
       </c>
       <c r="I43" s="66"/>
       <c r="J43" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -10559,10 +10558,10 @@
     </row>
     <row r="45" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="255" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="275" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" s="257" t="s">
         <v>2</v>
@@ -10572,11 +10571,11 @@
         <v>4</v>
       </c>
       <c r="F45" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G45" s="262"/>
       <c r="H45" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I45" s="246"/>
       <c r="J45" s="71" t="s">
@@ -10606,20 +10605,20 @@
     <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="46"/>
       <c r="C47" s="181" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47" s="129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E47" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F47" s="149">
         <f>0.88*1.05</f>
         <v>0.92400000000000004</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H47" s="195">
         <f>H48+H54</f>
@@ -10634,10 +10633,10 @@
         <v>6</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="28"/>
@@ -10645,17 +10644,17 @@
         <v>4.3</v>
       </c>
       <c r="I48" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J48" s="205"/>
     </row>
     <row r="49" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="210"/>
       <c r="C49" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="28"/>
@@ -10664,16 +10663,16 @@
       </c>
       <c r="I49" s="217"/>
       <c r="J49" s="279" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="C50" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="28"/>
@@ -10686,10 +10685,10 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="C51" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="28"/>
@@ -10702,10 +10701,10 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="C52" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="28"/>
@@ -10718,10 +10717,10 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="C53" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="28"/>
@@ -10737,10 +10736,10 @@
         <v>6</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="28"/>
@@ -10748,7 +10747,7 @@
         <v>1.8</v>
       </c>
       <c r="I54" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J54" s="208"/>
     </row>
@@ -10756,13 +10755,13 @@
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="66"/>
@@ -10770,7 +10769,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="206" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J55" s="207"/>
     </row>
@@ -10778,13 +10777,13 @@
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D56" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E56" s="187" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F56" s="116">
         <f>F47</f>
@@ -10797,7 +10796,7 @@
       </c>
       <c r="I56" s="66"/>
       <c r="J56" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -10814,10 +10813,10 @@
     </row>
     <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="255" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B58" s="275" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C58" s="257" t="s">
         <v>2</v>
@@ -10827,11 +10826,11 @@
         <v>4</v>
       </c>
       <c r="F58" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G58" s="262"/>
       <c r="H58" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I58" s="246"/>
       <c r="J58" s="71" t="s">
@@ -10861,20 +10860,20 @@
     <row r="60" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="46"/>
       <c r="C60" s="181" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D60" s="129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E60" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F60" s="149">
         <f>0.88*1.05</f>
         <v>0.92400000000000004</v>
       </c>
       <c r="G60" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H60" s="195">
         <f>H61+H67</f>
@@ -10889,10 +10888,10 @@
         <v>6</v>
       </c>
       <c r="D61" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="28"/>
@@ -10900,17 +10899,17 @@
         <v>5.2</v>
       </c>
       <c r="I61" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J61" s="205"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="210"/>
       <c r="C62" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="28"/>
@@ -10919,16 +10918,16 @@
       </c>
       <c r="I62" s="217"/>
       <c r="J62" s="279" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="C63" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="28"/>
@@ -10941,10 +10940,10 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="C64" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="28"/>
@@ -10957,10 +10956,10 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="C65" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="28"/>
@@ -10973,10 +10972,10 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="C66" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="28"/>
@@ -10992,10 +10991,10 @@
         <v>6</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="28"/>
@@ -11003,7 +11002,7 @@
         <v>1.8</v>
       </c>
       <c r="I67" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J67" s="205"/>
     </row>
@@ -11011,13 +11010,13 @@
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F68" s="21"/>
       <c r="G68" s="66"/>
@@ -11025,7 +11024,7 @@
         <v>1</v>
       </c>
       <c r="I68" s="206" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J68" s="207"/>
     </row>
@@ -11033,13 +11032,13 @@
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D69" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E69" s="187" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F69" s="116">
         <f>F60</f>
@@ -11052,7 +11051,7 @@
       </c>
       <c r="I69" s="66"/>
       <c r="J69" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -11069,10 +11068,10 @@
     </row>
     <row r="71" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="255" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B71" s="275" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C71" s="257" t="s">
         <v>2</v>
@@ -11082,11 +11081,11 @@
         <v>4</v>
       </c>
       <c r="F71" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G71" s="262"/>
       <c r="H71" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I71" s="246"/>
       <c r="J71" s="71" t="s">
@@ -11116,20 +11115,20 @@
     <row r="73" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="46"/>
       <c r="C73" s="181" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D73" s="129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E73" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F73" s="149">
         <f>0.88*1.05</f>
         <v>0.92400000000000004</v>
       </c>
       <c r="G73" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H73" s="195">
         <f>H74+H80</f>
@@ -11144,10 +11143,10 @@
         <v>6</v>
       </c>
       <c r="D74" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="28"/>
@@ -11155,17 +11154,17 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I74" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J74" s="205"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="210"/>
       <c r="C75" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="28"/>
@@ -11174,16 +11173,16 @@
       </c>
       <c r="I75" s="217"/>
       <c r="J75" s="279" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="C76" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="28"/>
@@ -11196,10 +11195,10 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="C77" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="28"/>
@@ -11212,10 +11211,10 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="C78" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="28"/>
@@ -11228,10 +11227,10 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="C79" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="28"/>
@@ -11247,10 +11246,10 @@
         <v>6</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="28"/>
@@ -11258,7 +11257,7 @@
         <v>3.6</v>
       </c>
       <c r="I80" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J80" s="205"/>
     </row>
@@ -11266,13 +11265,13 @@
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F81" s="21"/>
       <c r="G81" s="66"/>
@@ -11280,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="206" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J81" s="207"/>
     </row>
@@ -11288,13 +11287,13 @@
       <c r="A82" s="11"/>
       <c r="B82" s="12"/>
       <c r="C82" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D82" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E82" s="187" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F82" s="116">
         <f>F73</f>
@@ -11307,7 +11306,7 @@
       </c>
       <c r="I82" s="66"/>
       <c r="J82" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -11324,10 +11323,10 @@
     </row>
     <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="255" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B84" s="275" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C84" s="257" t="s">
         <v>2</v>
@@ -11337,11 +11336,11 @@
         <v>4</v>
       </c>
       <c r="F84" s="261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G84" s="262"/>
       <c r="H84" s="245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I84" s="246"/>
       <c r="J84" s="71" t="s">
@@ -11371,20 +11370,20 @@
     <row r="86" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="46"/>
       <c r="C86" s="181" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D86" s="129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E86" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F86" s="149">
         <f>0.88*1.05</f>
         <v>0.92400000000000004</v>
       </c>
       <c r="G86" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H86" s="195">
         <f>H87+H93</f>
@@ -11399,10 +11398,10 @@
         <v>6</v>
       </c>
       <c r="D87" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="28"/>
@@ -11410,17 +11409,17 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I87" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J87" s="205"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="210"/>
       <c r="C88" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="28"/>
@@ -11429,15 +11428,15 @@
       </c>
       <c r="I88" s="217"/>
       <c r="J88" s="279" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C89" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="28"/>
@@ -11450,10 +11449,10 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="C90" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="28"/>
@@ -11466,10 +11465,10 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="C91" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="28"/>
@@ -11482,10 +11481,10 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="C92" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="28"/>
@@ -11501,10 +11500,10 @@
         <v>6</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="28"/>
@@ -11512,7 +11511,7 @@
         <v>2.9</v>
       </c>
       <c r="I93" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J93" s="205"/>
     </row>
@@ -11520,13 +11519,13 @@
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F94" s="21"/>
       <c r="G94" s="66"/>
@@ -11534,7 +11533,7 @@
         <v>1</v>
       </c>
       <c r="I94" s="206" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J94" s="207"/>
     </row>
@@ -11542,13 +11541,13 @@
       <c r="A95" s="11"/>
       <c r="B95" s="12"/>
       <c r="C95" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D95" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E95" s="187" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F95" s="116">
         <f>F86</f>
@@ -11561,7 +11560,7 @@
       </c>
       <c r="I95" s="66"/>
       <c r="J95" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -11574,41 +11573,41 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" t="s">
         <v>26</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>27</v>
       </c>
-      <c r="D98" t="s">
-        <v>28</v>
-      </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B99" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="48" t="s">
+      <c r="D99" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E99" s="2">
         <v>2016</v>
@@ -11622,16 +11621,16 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B100" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="48" t="s">
+      <c r="D100" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E100" s="2">
         <v>2012</v>
@@ -11639,7 +11638,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I100" s="49">
         <v>45232</v>
@@ -11647,16 +11646,16 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B101" s="219" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E101" s="2">
         <v>2022</v>
@@ -11664,7 +11663,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I101" s="49">
         <v>45232</v>
@@ -11672,16 +11671,16 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B102" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="C102" s="48" t="s">
+      <c r="D102" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E102" s="2">
         <v>2017</v>
@@ -11689,7 +11688,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I102" s="49">
         <v>45232</v>
@@ -11697,16 +11696,16 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B103" s="219" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="C103" s="48" t="s">
+      <c r="D103" s="48" t="s">
         <v>128</v>
-      </c>
-      <c r="D103" s="48" t="s">
-        <v>129</v>
       </c>
       <c r="E103" s="2">
         <v>2009</v>
@@ -11714,7 +11713,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I103" s="49">
         <v>45232</v>
@@ -11722,25 +11721,25 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B104" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E104" s="2">
         <v>2015</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H104" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I104" s="49">
         <v>45919</v>
@@ -11768,13 +11767,41 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="J75:J79"/>
+    <mergeCell ref="J88:J92"/>
+    <mergeCell ref="J6:J11"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="J36:J40"/>
+    <mergeCell ref="J49:J53"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
@@ -11789,41 +11816,13 @@
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="J75:J79"/>
-    <mergeCell ref="J88:J92"/>
-    <mergeCell ref="J6:J11"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="J36:J40"/>
-    <mergeCell ref="J49:J53"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:G84"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B100" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{08C37779-D221-400E-B10A-9D56EB8BC329}"/>
@@ -11871,10 +11870,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="255" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="275" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C2" s="257" t="s">
         <v>2</v>
@@ -11884,11 +11883,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="285" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="286"/>
       <c r="H2" s="282" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="283"/>
       <c r="J2" s="124" t="s">
@@ -11918,20 +11917,20 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="C4" s="181" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="149">
         <f>1653.8*3.6/1000</f>
         <v>5.9536800000000003</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="195">
         <f>H5</f>
@@ -11947,17 +11946,17 @@
         <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="156"/>
       <c r="H5" s="156">
         <v>7.2</v>
       </c>
       <c r="I5" s="154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="7"/>
     </row>
@@ -11965,13 +11964,13 @@
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="176"/>
       <c r="G6" s="12"/>
@@ -11979,7 +11978,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="14"/>
     </row>
@@ -11987,13 +11986,13 @@
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D7" s="184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="187" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="116">
         <f>F4</f>
@@ -12006,7 +12005,7 @@
       </c>
       <c r="I7" s="66"/>
       <c r="J7" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -12014,45 +12013,45 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>153</v>
-      </c>
       <c r="E10" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="2">
         <v>2017</v>
@@ -12061,21 +12060,21 @@
         <v>45232</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C11" s="227" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D11" s="230" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F11" s="228">
         <v>2018</v>

--- a/02_Energy_calculation/01 Specific energy demand_minimal.xlsx
+++ b/02_Energy_calculation/01 Specific energy demand_minimal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge37kog\bwSyncShare\Follow ETSAP\Veröffentlichungen\Materials and energy demands 2018\Publication\ANNEX_submission\02_Energy_calculation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projekte\ETSAP - Follow\05 Reports\03 Veröffentlichungen\01 Material und Energienachfragen\GitHub\Industrial-energy-demands\02_Energy_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54377DB9-C9DE-4210-8411-D0D175E3C89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2221F7B3-D0C7-41E3-A949-7130F6B75194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="17520" tabRatio="550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="16" r:id="rId1"/>
@@ -2192,6 +2192,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2206,15 +2215,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2542,61 +2542,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E097F20-C454-4A99-A64B-962EC78AF4EF}">
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="99.42578125" style="222" customWidth="1"/>
+    <col min="1" max="1" width="99.453125" style="222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="222" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="223" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="222" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="223" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="222" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="224" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="221" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="224" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="225" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>285</v>
       </c>
@@ -2618,20 +2618,20 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="25" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" customWidth="1"/>
+    <col min="11" max="25" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="148"/>
       <c r="B1" s="150"/>
       <c r="C1" s="83"/>
@@ -2643,7 +2643,7 @@
       <c r="I1" s="84"/>
       <c r="J1" s="85"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="255" t="s">
         <v>71</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="264"/>
       <c r="B3" s="266"/>
       <c r="C3" s="267"/>
@@ -2687,11 +2687,11 @@
       <c r="I3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="292" t="s">
+      <c r="J3" s="287" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="46"/>
       <c r="C4" s="198" t="s">
         <v>82</v>
@@ -2712,9 +2712,9 @@
         <v>30.864599999999999</v>
       </c>
       <c r="I4" s="39"/>
-      <c r="J4" s="293"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="288"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="C5" s="199" t="s">
         <v>6</v>
@@ -2737,9 +2737,9 @@
       <c r="I5" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="293"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="288"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="C6" s="199" t="s">
         <v>6</v>
@@ -2762,9 +2762,9 @@
       <c r="I6" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="293"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="288"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="199" t="s">
         <v>6</v>
@@ -2785,9 +2785,9 @@
       <c r="I7" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="293"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="288"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="200" t="s">
@@ -2809,9 +2809,9 @@
       <c r="I8" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="294"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="289"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="64"/>
       <c r="B9" s="46"/>
       <c r="C9" s="112" t="s">
@@ -2837,7 +2837,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="C10" s="112" t="s">
         <v>245</v>
@@ -2859,7 +2859,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="148"/>
       <c r="B11" s="150"/>
       <c r="C11" s="201"/>
@@ -2871,17 +2871,17 @@
       <c r="I11" s="84"/>
       <c r="J11" s="85"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="255" t="s">
         <v>71</v>
       </c>
       <c r="B12" s="275" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="288" t="s">
+      <c r="C12" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="290"/>
+      <c r="D12" s="293"/>
       <c r="E12" s="259" t="s">
         <v>4</v>
       </c>
@@ -2897,11 +2897,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="264"/>
       <c r="B13" s="266"/>
-      <c r="C13" s="289"/>
-      <c r="D13" s="291"/>
+      <c r="C13" s="292"/>
+      <c r="D13" s="294"/>
       <c r="E13" s="270"/>
       <c r="F13" s="149" t="s">
         <v>3</v>
@@ -2915,11 +2915,11 @@
       <c r="I13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="292" t="s">
+      <c r="J13" s="287" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="46"/>
       <c r="C14" s="198" t="s">
         <v>82</v>
@@ -2937,9 +2937,9 @@
         <v>39.379999999999995</v>
       </c>
       <c r="I14" s="39"/>
-      <c r="J14" s="293"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="288"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="C15" s="199" t="s">
         <v>6</v>
@@ -2962,9 +2962,9 @@
       <c r="I15" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="293"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="288"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="C16" s="199" t="s">
         <v>6</v>
@@ -2987,9 +2987,9 @@
       <c r="I16" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="293"/>
-    </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="288"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="C17" s="199" t="s">
         <v>6</v>
@@ -3010,9 +3010,9 @@
       <c r="I17" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="293"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="288"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="200" t="s">
@@ -3034,9 +3034,9 @@
       <c r="I18" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="294"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="289"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="64"/>
       <c r="B19" s="46"/>
       <c r="C19" s="113" t="s">
@@ -3062,7 +3062,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="115" t="s">
@@ -3085,10 +3085,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="50" t="s">
         <v>19</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="19"/>
@@ -3175,7 +3175,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="45"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
         <v>176</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="F26" s="20"/>
       <c r="G26" s="45"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="19"/>
@@ -3197,7 +3197,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="45"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="19"/>
@@ -3206,25 +3206,25 @@
       <c r="F28" s="20"/>
       <c r="G28" s="45"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
-      <c r="C29" s="287"/>
+      <c r="C29" s="290"/>
       <c r="D29" s="19"/>
       <c r="E29" s="40"/>
       <c r="F29" s="20"/>
       <c r="G29" s="45"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
-      <c r="C30" s="287"/>
+      <c r="C30" s="290"/>
       <c r="D30" s="19"/>
       <c r="E30" s="40"/>
       <c r="F30" s="20"/>
       <c r="G30" s="45"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="44"/>
       <c r="B31" s="44"/>
       <c r="C31" s="20"/>
@@ -3233,7 +3233,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="45"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
       <c r="C32" s="1"/>
@@ -3242,44 +3242,36 @@
       <c r="F32" s="20"/>
       <c r="G32" s="45"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E36" s="43"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E37" s="43"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E38" s="43"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E39" s="43"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E40" s="43"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E41" s="43"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E42" s="43"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E43" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="J3:J8"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -3289,6 +3281,14 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="J3:J8"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3303,17 +3303,17 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="2"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="2"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="247" t="s">
         <v>95</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="H2" s="248"/>
       <c r="I2" s="249"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="255"/>
       <c r="B3" s="257" t="s">
         <v>2</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="264"/>
       <c r="B4" s="267"/>
       <c r="C4" s="12"/>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="I4" s="280"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" s="46" t="s">
         <v>82</v>
@@ -3389,7 +3389,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="166"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="C6" t="s">
         <v>94</v>
@@ -3409,7 +3409,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" t="s">
         <v>156</v>
@@ -3420,7 +3420,7 @@
       <c r="H7" s="161"/>
       <c r="I7" s="263"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56" t="s">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="I8" s="263"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="C9" s="56" t="s">
         <v>86</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="I9" s="263"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="C10" s="56" t="s">
         <v>87</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="I10" s="263"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="C11" t="s">
         <v>98</v>
@@ -3486,7 +3486,7 @@
       <c r="H11" s="161"/>
       <c r="I11" s="263"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="C12" s="56" t="s">
         <v>86</v>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="I12" s="263"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>88</v>
@@ -3523,7 +3523,7 @@
       <c r="H13" s="171"/>
       <c r="I13" s="295"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="46"/>
       <c r="B14" s="113" t="s">
         <v>245</v>
@@ -3545,7 +3545,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="115" t="s">
         <v>245</v>
@@ -3571,7 +3571,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="247" t="s">
         <v>100</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="H17" s="248"/>
       <c r="I17" s="249"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="46"/>
       <c r="B18" s="46" t="s">
         <v>82</v>
@@ -3608,7 +3608,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="166"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="C19" t="s">
         <v>94</v>
@@ -3628,7 +3628,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="C20" t="s">
         <v>96</v>
@@ -3639,7 +3639,7 @@
       <c r="H20" s="161"/>
       <c r="I20" s="263"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56" t="s">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="I21" s="263"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="C22" s="56" t="s">
         <v>86</v>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="I22" s="263"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="C23" s="56" t="s">
         <v>87</v>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="I23" s="263"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="C24" t="s">
         <v>98</v>
@@ -3705,7 +3705,7 @@
       <c r="H24" s="161"/>
       <c r="I24" s="263"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="C25" s="56" t="s">
         <v>85</v>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="I25" s="263"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
         <v>88</v>
@@ -3742,7 +3742,7 @@
       <c r="H26" s="171"/>
       <c r="I26" s="295"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="46"/>
       <c r="B27" s="113" t="s">
         <v>245</v>
@@ -3764,7 +3764,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="115" t="s">
         <v>245</v>
@@ -3788,10 +3788,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="50"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>32</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>19</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="230" t="s">
         <v>35</v>
       </c>
@@ -3848,15 +3848,15 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="148" t="s">
         <v>73</v>
       </c>
@@ -3870,7 +3870,7 @@
       <c r="I1" s="83"/>
       <c r="J1" s="85"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="255" t="s">
         <v>73</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="264"/>
       <c r="B3" s="266"/>
       <c r="C3" s="267"/>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="J3" s="124"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="46"/>
       <c r="B4" s="75" t="s">
         <v>74</v>
@@ -3940,7 +3940,7 @@
       <c r="I4" s="39"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -3988,7 +3988,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="9" t="s">
         <v>11</v>
@@ -4006,7 +4006,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="C8" s="9" t="s">
         <v>11</v>
@@ -4022,7 +4022,7 @@
       <c r="I8" s="154"/>
       <c r="J8" s="279"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="C9" s="9" t="s">
         <v>11</v>
@@ -4038,7 +4038,7 @@
       <c r="I9" s="154"/>
       <c r="J9" s="279"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="C10" s="9" t="s">
         <v>11</v>
@@ -4054,7 +4054,7 @@
       <c r="I10" s="60"/>
       <c r="J10" s="279"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="C11" s="9" t="s">
         <v>11</v>
@@ -4070,7 +4070,7 @@
       <c r="I11" s="60"/>
       <c r="J11" s="279"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
@@ -4116,7 +4116,7 @@
       <c r="I13" s="62"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="64"/>
       <c r="B14" s="46"/>
       <c r="C14" s="113" t="s">
@@ -4142,7 +4142,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="115" t="s">
@@ -4168,10 +4168,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>32</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
         <v>35</v>
       </c>
@@ -4236,21 +4236,21 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="10" max="10" width="39.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="255" t="s">
         <v>80</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="264"/>
       <c r="B3" s="266"/>
       <c r="C3" s="267"/>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="J3" s="124"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="46"/>
       <c r="B4" s="75" t="s">
         <v>74</v>
@@ -4320,7 +4320,7 @@
       <c r="I4" s="39"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="79"/>
       <c r="C5" s="5" t="s">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="J5" s="60"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -4370,7 +4370,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="9" t="s">
         <v>11</v>
@@ -4388,7 +4388,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="C8" s="9" t="s">
         <v>11</v>
@@ -4404,7 +4404,7 @@
       <c r="I8" s="154"/>
       <c r="J8" s="279"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="C9" s="9" t="s">
         <v>11</v>
@@ -4420,7 +4420,7 @@
       <c r="I9" s="154"/>
       <c r="J9" s="279"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="C10" s="9" t="s">
         <v>11</v>
@@ -4436,7 +4436,7 @@
       <c r="I10" s="60"/>
       <c r="J10" s="279"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="C11" s="9" t="s">
         <v>11</v>
@@ -4452,7 +4452,7 @@
       <c r="I11" s="60"/>
       <c r="J11" s="279"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="J12" s="60"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
@@ -4497,7 +4497,7 @@
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="64"/>
       <c r="B14" s="46"/>
       <c r="C14" s="113" t="s">
@@ -4523,7 +4523,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="115" t="s">
@@ -4549,7 +4549,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>32</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="50" t="s">
         <v>176</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="50" t="s">
         <v>229</v>
       </c>
@@ -4615,17 +4615,17 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="247" t="s">
         <v>81</v>
       </c>
@@ -4638,7 +4638,7 @@
       <c r="H2" s="248"/>
       <c r="I2" s="249"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="255"/>
       <c r="B3" s="257" t="s">
         <v>2</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="256"/>
       <c r="B4" s="258"/>
       <c r="D4" s="260"/>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="I4" s="254"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" s="46" t="s">
         <v>82</v>
@@ -4701,7 +4701,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="68"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>83</v>
       </c>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="I6" s="60"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="56"/>
       <c r="C7" t="s">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="I7" s="60"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="C8" s="56" t="s">
         <v>85</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I8" s="60"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="C9" s="56" t="s">
         <v>86</v>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="I9" s="60"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="C10" s="56" t="s">
         <v>87</v>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I10" s="60"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>88</v>
@@ -4810,7 +4810,7 @@
       <c r="H11" s="162"/>
       <c r="I11" s="62"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="82"/>
       <c r="B12" s="183" t="s">
         <v>245</v>
@@ -4833,7 +4833,7 @@
       <c r="H12" s="187"/>
       <c r="I12" s="188"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="250" t="s">
         <v>90</v>
       </c>
@@ -4846,7 +4846,7 @@
       <c r="H14" s="251"/>
       <c r="I14" s="252"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="46"/>
       <c r="B15" s="46" t="s">
         <v>82</v>
@@ -4871,7 +4871,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="68"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="C16" t="s">
         <v>83</v>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="I16" s="60"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="C17" t="s">
         <v>84</v>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="I17" s="60"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="56"/>
       <c r="C18" s="56" t="s">
@@ -4926,7 +4926,7 @@
       </c>
       <c r="I18" s="60"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="56"/>
       <c r="C19" s="56" t="s">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="I19" s="60"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="56"/>
       <c r="C20" s="56" t="s">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="I20" s="60"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
         <v>20</v>
@@ -4983,7 +4983,7 @@
       <c r="H21" s="162"/>
       <c r="I21" s="62"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="82"/>
       <c r="B22" s="183" t="s">
         <v>245</v>
@@ -5006,7 +5006,7 @@
       <c r="H22" s="187"/>
       <c r="I22" s="188"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="250" t="s">
         <v>93</v>
       </c>
@@ -5019,7 +5019,7 @@
       <c r="H24" s="251"/>
       <c r="I24" s="252"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="46"/>
       <c r="B25" s="46" t="s">
         <v>82</v>
@@ -5043,7 +5043,7 @@
       <c r="H25" s="39"/>
       <c r="I25" s="68"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="C26" t="s">
         <v>94</v>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="I26" s="60"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="56"/>
       <c r="C27" t="s">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="I27" s="60"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="56"/>
       <c r="C28" t="s">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="I28" s="60"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="56"/>
       <c r="C29" t="s">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="I29" s="60"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="56"/>
       <c r="C30" t="s">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="I30" s="60"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="12" t="s">
         <v>20</v>
@@ -5156,7 +5156,7 @@
       <c r="H31" s="162"/>
       <c r="I31" s="62"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="82"/>
       <c r="B32" s="183" t="s">
         <v>245</v>
@@ -5179,7 +5179,7 @@
       <c r="H32" s="187"/>
       <c r="I32" s="188"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B33" s="112"/>
       <c r="C33" s="190"/>
       <c r="D33" s="191"/>
@@ -5189,7 +5189,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="50"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
         <v>35</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="230" t="s">
         <v>37</v>
       </c>
@@ -5249,21 +5249,21 @@
   </sheetPr>
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="I1" s="84"/>
       <c r="J1" s="85"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="255" t="s">
         <v>1</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="264"/>
       <c r="B3" s="266"/>
       <c r="C3" s="267"/>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="78"/>
       <c r="B4" s="79" t="s">
         <v>185</v>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="78"/>
       <c r="B5" s="79"/>
       <c r="C5" s="24"/>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="O5" s="137"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="74"/>
       <c r="B6" s="76"/>
       <c r="C6" s="88" t="s">
@@ -5394,7 +5394,7 @@
       <c r="I6" s="72"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="78"/>
       <c r="B7" s="79" t="s">
         <v>197</v>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="78"/>
       <c r="B8" s="107" t="s">
         <v>196</v>
@@ -5453,7 +5453,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="138"/>
       <c r="B9" s="139"/>
       <c r="C9" s="140"/>
@@ -5481,7 +5481,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="78"/>
       <c r="B10" s="79" t="s">
         <v>188</v>
@@ -5511,7 +5511,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="78"/>
       <c r="B11" s="79" t="s">
         <v>189</v>
@@ -5539,7 +5539,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="74"/>
       <c r="B12" s="76"/>
       <c r="C12" s="88" t="s">
@@ -5559,7 +5559,7 @@
       <c r="I12" s="72"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="78"/>
       <c r="B13" s="79" t="s">
         <v>191</v>
@@ -5581,7 +5581,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="78"/>
       <c r="B14" s="79"/>
       <c r="D14" s="96" t="s">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="78"/>
       <c r="B15" s="79"/>
       <c r="C15" s="89"/>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="74"/>
       <c r="B16" s="76"/>
       <c r="C16" s="12" t="s">
@@ -5648,7 +5648,7 @@
       <c r="J16" s="7"/>
       <c r="M16" s="50"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="78"/>
       <c r="B17" s="79" t="s">
         <v>192</v>
@@ -5674,7 +5674,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="C18" s="24" t="s">
         <v>6</v>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="24"/>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="C20" s="24"/>
       <c r="D20" s="5" t="s">
@@ -5739,7 +5739,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="C21" s="110" t="s">
         <v>11</v>
@@ -5759,7 +5759,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="C22" s="110" t="s">
         <v>11</v>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="J22" s="263"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="C23" s="110" t="s">
         <v>11</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="J23" s="263"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="C24" s="110" t="s">
         <v>11</v>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="J24" s="263"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="C25" s="110" t="s">
         <v>11</v>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="J25" s="263"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="C26" s="24"/>
       <c r="D26" s="9" t="s">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="41" t="s">
@@ -5865,7 +5865,7 @@
       <c r="I27" s="66"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="64"/>
       <c r="B28" s="46"/>
       <c r="C28" s="112" t="s">
@@ -5891,7 +5891,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="C29" s="112" t="s">
         <v>183</v>
@@ -5916,7 +5916,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="115" t="s">
@@ -5942,13 +5942,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C31" s="108"/>
       <c r="D31" s="80"/>
       <c r="E31" s="50"/>
       <c r="H31" s="105"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="82" t="s">
         <v>23</v>
       </c>
@@ -5962,7 +5962,7 @@
       <c r="I32" s="84"/>
       <c r="J32" s="85"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="256" t="s">
         <v>23</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="264"/>
       <c r="B34" s="266"/>
       <c r="C34" s="267"/>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="J34" s="124"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="73"/>
       <c r="B35" s="75" t="s">
         <v>200</v>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="78"/>
       <c r="B36" s="79" t="s">
         <v>201</v>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="78"/>
       <c r="B37" s="79" t="s">
         <v>202</v>
@@ -6086,7 +6086,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="74"/>
       <c r="B38" s="76"/>
       <c r="C38" s="115" t="s">
@@ -6106,7 +6106,7 @@
       <c r="I38" s="122"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="78"/>
       <c r="B39" s="79" t="s">
         <v>191</v>
@@ -6128,7 +6128,7 @@
       <c r="I39" s="39"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="78"/>
       <c r="B40" s="79"/>
       <c r="D40" s="96" t="s">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="78"/>
       <c r="B41" s="79"/>
       <c r="C41" s="89"/>
@@ -6176,7 +6176,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="74"/>
       <c r="B42" s="76"/>
       <c r="C42" s="12" t="s">
@@ -6196,7 +6196,7 @@
       <c r="I42" s="72"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="78"/>
       <c r="B43" s="79" t="s">
         <v>192</v>
@@ -6222,7 +6222,7 @@
       <c r="I43" s="39"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="C44" s="27" t="s">
         <v>6</v>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
@@ -6269,7 +6269,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="C46" s="110" t="s">
         <v>11</v>
@@ -6290,7 +6290,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="C47" s="110" t="s">
         <v>11</v>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="J47" s="263"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="C48" s="110" t="s">
         <v>11</v>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="J48" s="263"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="C49" s="110" t="s">
         <v>11</v>
@@ -6345,7 +6345,7 @@
       <c r="I49" s="28"/>
       <c r="J49" s="263"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="C50" s="110" t="s">
         <v>11</v>
@@ -6362,7 +6362,7 @@
       <c r="I50" s="28"/>
       <c r="J50" s="263"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
       <c r="C51" s="135" t="s">
@@ -6382,7 +6382,7 @@
       <c r="I51" s="66"/>
       <c r="J51" s="14"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="64"/>
       <c r="B52" s="46"/>
       <c r="C52" s="113" t="s">
@@ -6408,7 +6408,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="C53" s="112" t="s">
         <v>183</v>
@@ -6428,7 +6428,7 @@
       <c r="I53" s="28"/>
       <c r="J53" s="60"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="115" t="s">
@@ -6454,22 +6454,22 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C55" s="27"/>
       <c r="D55" s="5"/>
       <c r="E55" s="91"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="D58" s="50"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
         <v>35</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
         <v>37</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
         <v>122</v>
       </c>
@@ -6525,12 +6525,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>176</v>
       </c>
@@ -6580,16 +6580,16 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="117" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" style="117" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="148"/>
       <c r="B1" s="150"/>
       <c r="C1" s="83"/>
@@ -6601,7 +6601,7 @@
       <c r="I1" s="84"/>
       <c r="J1" s="85"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="255" t="s">
         <v>39</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="264"/>
       <c r="B3" s="266"/>
       <c r="C3" s="267"/>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="J3" s="124"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="78"/>
       <c r="B4" s="75" t="s">
         <v>40</v>
@@ -6673,7 +6673,7 @@
       <c r="I4" s="39"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -6722,7 +6722,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="9" t="s">
         <v>11</v>
@@ -6739,7 +6739,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="C8" s="9" t="s">
         <v>11</v>
@@ -6754,7 +6754,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="263"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="C9" s="9" t="s">
         <v>11</v>
@@ -6769,7 +6769,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="263"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="C10" s="9" t="s">
         <v>11</v>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="J10" s="263"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="C11" s="9" t="s">
         <v>11</v>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="J11" s="263"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="147"/>
       <c r="C12" s="13" t="s">
@@ -6817,7 +6817,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="183" t="s">
@@ -6843,11 +6843,11 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="255" t="s">
         <v>43</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="264"/>
       <c r="B16" s="266"/>
       <c r="C16" s="267"/>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="J16" s="124"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="78"/>
       <c r="B17" s="75" t="s">
         <v>40</v>
@@ -6919,7 +6919,7 @@
       <c r="I17" s="39"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="79"/>
       <c r="C18" s="5" t="s">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="C19" s="5" t="s">
         <v>6</v>
@@ -6971,7 +6971,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="C20" s="9" t="s">
         <v>11</v>
@@ -6989,7 +6989,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="C21" s="9" t="s">
         <v>11</v>
@@ -7005,7 +7005,7 @@
       <c r="I21" s="154"/>
       <c r="J21" s="263"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="C22" s="9" t="s">
         <v>11</v>
@@ -7021,7 +7021,7 @@
       <c r="I22" s="154"/>
       <c r="J22" s="263"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="C23" s="9" t="s">
         <v>11</v>
@@ -7037,7 +7037,7 @@
       <c r="I23" s="60"/>
       <c r="J23" s="263"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="C24" s="9" t="s">
         <v>11</v>
@@ -7053,7 +7053,7 @@
       <c r="I24" s="60"/>
       <c r="J24" s="263"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="147"/>
       <c r="C25" s="13" t="s">
@@ -7073,7 +7073,7 @@
       <c r="I25" s="62"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="183" t="s">
@@ -7099,11 +7099,11 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="255" t="s">
         <v>212</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="264"/>
       <c r="B29" s="266"/>
       <c r="C29" s="267"/>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="J29" s="124"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="75" t="s">
         <v>44</v>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="C31" s="5" t="s">
         <v>6</v>
@@ -7203,7 +7203,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="147"/>
       <c r="C32" s="13" t="s">
@@ -7223,7 +7223,7 @@
       <c r="I32" s="62"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="78"/>
       <c r="B33" s="79" t="s">
         <v>191</v>
@@ -7245,7 +7245,7 @@
       <c r="I33" s="86"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="78"/>
       <c r="B34" s="79"/>
       <c r="D34" s="96" t="s">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="78"/>
       <c r="B35" s="79"/>
       <c r="C35" s="89"/>
@@ -7293,7 +7293,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="74"/>
       <c r="B36" s="76"/>
       <c r="C36" s="12" t="s">
@@ -7314,7 +7314,7 @@
       <c r="J36" s="7"/>
       <c r="M36" s="50"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="78"/>
       <c r="B37" s="75" t="s">
         <v>213</v>
@@ -7341,7 +7341,7 @@
       <c r="J37" s="7"/>
       <c r="M37" s="50"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="79" t="s">
         <v>191</v>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="C39" s="5" t="s">
         <v>6</v>
@@ -7393,7 +7393,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="C40" s="9" t="s">
         <v>11</v>
@@ -7411,7 +7411,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="C41" s="9" t="s">
         <v>11</v>
@@ -7427,7 +7427,7 @@
       <c r="I41" s="154"/>
       <c r="J41" s="263"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="C42" s="9" t="s">
         <v>11</v>
@@ -7443,7 +7443,7 @@
       <c r="I42" s="154"/>
       <c r="J42" s="263"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="C43" s="9" t="s">
         <v>11</v>
@@ -7459,7 +7459,7 @@
       <c r="I43" s="60"/>
       <c r="J43" s="263"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="C44" s="9" t="s">
         <v>11</v>
@@ -7475,7 +7475,7 @@
       <c r="I44" s="60"/>
       <c r="J44" s="263"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
       <c r="B45" s="147"/>
       <c r="C45" s="13" t="s">
@@ -7495,7 +7495,7 @@
       <c r="I45" s="62"/>
       <c r="J45" s="14"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="64"/>
       <c r="B46" s="46"/>
       <c r="C46" s="113" t="s">
@@ -7521,7 +7521,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47"/>
       <c r="C47" s="112" t="s">
@@ -7542,7 +7542,7 @@
       <c r="I47" s="28"/>
       <c r="J47" s="60"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="115" t="s">
@@ -7568,11 +7568,11 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C49" s="5"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="255" t="s">
         <v>45</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="264"/>
       <c r="B51" s="266"/>
       <c r="C51" s="267"/>
@@ -7618,7 +7618,7 @@
       </c>
       <c r="J51" s="124"/>
     </row>
-    <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="75" t="s">
         <v>46</v>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="C53" s="5" t="s">
         <v>6</v>
@@ -7672,7 +7672,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
       <c r="B54" s="147"/>
       <c r="C54" s="13" t="s">
@@ -7692,7 +7692,7 @@
       <c r="I54" s="62"/>
       <c r="J54" s="14"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="78"/>
       <c r="B55" s="79" t="s">
         <v>191</v>
@@ -7714,7 +7714,7 @@
       <c r="I55" s="86"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="78"/>
       <c r="B56" s="79"/>
       <c r="D56" s="96" t="s">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="78"/>
       <c r="B57" s="79"/>
       <c r="C57" s="89"/>
@@ -7762,7 +7762,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="74"/>
       <c r="B58" s="76"/>
       <c r="C58" s="12" t="s">
@@ -7783,7 +7783,7 @@
       <c r="J58" s="14"/>
       <c r="M58" s="50"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="78"/>
       <c r="B59" s="75" t="s">
         <v>218</v>
@@ -7810,7 +7810,7 @@
       <c r="J59" s="7"/>
       <c r="M59" s="50"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="117" t="s">
         <v>219</v>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
       <c r="B61" s="117" t="s">
         <v>214</v>
@@ -7864,7 +7864,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
       <c r="B62" s="117" t="s">
         <v>220</v>
@@ -7885,7 +7885,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
       <c r="B63" s="79" t="s">
         <v>191</v>
@@ -7904,7 +7904,7 @@
       <c r="I63" s="154"/>
       <c r="J63" s="263"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
       <c r="C64" s="9" t="s">
         <v>11</v>
@@ -7920,7 +7920,7 @@
       <c r="I64" s="154"/>
       <c r="J64" s="263"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
       <c r="C65" s="9" t="s">
         <v>11</v>
@@ -7936,7 +7936,7 @@
       <c r="I65" s="60"/>
       <c r="J65" s="263"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
       <c r="C66" s="9" t="s">
         <v>11</v>
@@ -7952,7 +7952,7 @@
       <c r="I66" s="60"/>
       <c r="J66" s="263"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
       <c r="B67" s="147"/>
       <c r="C67" s="13" t="s">
@@ -7972,7 +7972,7 @@
       <c r="I67" s="62"/>
       <c r="J67" s="14"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="64"/>
       <c r="B68" s="46"/>
       <c r="C68" s="113" t="s">
@@ -7998,7 +7998,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
       <c r="B69"/>
       <c r="C69" s="112" t="s">
@@ -8019,7 +8019,7 @@
       <c r="I69" s="28"/>
       <c r="J69" s="60"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="115" t="s">
@@ -8045,7 +8045,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>223</v>
       </c>
@@ -8111,21 +8111,21 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B79" s="50"/>
       <c r="C79" s="51"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B80" s="50"/>
       <c r="C80" s="51"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>175</v>
       </c>
       <c r="B81" s="50"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>176</v>
       </c>
@@ -8133,11 +8133,27 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B83" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="J20:J24"/>
     <mergeCell ref="J7:J11"/>
     <mergeCell ref="H50:I50"/>
@@ -8154,22 +8170,6 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:G28"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="J40:J44"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C73" r:id="rId1" xr:uid="{6EA70C95-47C6-405C-AD1C-397EC82D1346}"/>
@@ -8195,16 +8195,16 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" customWidth="1"/>
+    <col min="10" max="10" width="25.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="82"/>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -8216,7 +8216,7 @@
       <c r="I1" s="84"/>
       <c r="J1" s="85"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="255" t="s">
         <v>65</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="264"/>
       <c r="B3" s="278"/>
       <c r="C3" s="267"/>
@@ -8262,7 +8262,7 @@
       </c>
       <c r="J3" s="124"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="46"/>
       <c r="C4" s="181" t="s">
         <v>82</v>
@@ -8285,7 +8285,7 @@
       <c r="I4" s="39"/>
       <c r="J4" s="68"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9" t="s">
@@ -8332,7 +8332,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="2"/>
       <c r="C7" s="9" t="s">
@@ -8350,7 +8350,7 @@
       <c r="I7" s="52"/>
       <c r="J7" s="263"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="9" t="s">
@@ -8368,7 +8368,7 @@
       <c r="I8" s="52"/>
       <c r="J8" s="263"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
       <c r="C9" s="9" t="s">
@@ -8386,7 +8386,7 @@
       <c r="I9" s="52"/>
       <c r="J9" s="263"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="9" t="s">
@@ -8404,7 +8404,7 @@
       <c r="I10" s="52"/>
       <c r="J10" s="263"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5" t="s">
@@ -8427,7 +8427,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="58"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="2"/>
       <c r="C12" s="5" t="s">
@@ -8450,7 +8450,7 @@
       <c r="J12" s="7"/>
       <c r="L12" s="229"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22" t="s">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="183" t="s">
@@ -8499,7 +8499,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8508,7 +8508,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="70"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="255" t="s">
         <v>64</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="264"/>
       <c r="B17" s="278"/>
       <c r="C17" s="267"/>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="J17" s="124"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="46"/>
       <c r="C18" s="181" t="s">
         <v>82</v>
@@ -8579,7 +8579,7 @@
       <c r="I18" s="39"/>
       <c r="J18" s="68"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="5" t="s">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
       <c r="C20" s="5" t="s">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22" t="s">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="183" t="s">
@@ -8671,7 +8671,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>108</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="50" t="s">
         <v>19</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="50" t="s">
         <v>35</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="50" t="s">
         <v>37</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="50" t="s">
         <v>122</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>European Cement Research Academy</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="50" t="s">
         <v>223</v>
       </c>
@@ -8884,15 +8884,15 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="2"/>
-    <col min="9" max="9" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="2"/>
+    <col min="9" max="9" width="30.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="247" t="s">
         <v>106</v>
       </c>
@@ -8905,7 +8905,7 @@
       <c r="H2" s="248"/>
       <c r="I2" s="249"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="255"/>
       <c r="B3" s="257" t="s">
         <v>2</v>
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="264"/>
       <c r="B4" s="267"/>
       <c r="C4" s="12"/>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="I4" s="280"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" s="46" t="s">
         <v>82</v>
@@ -8967,7 +8967,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="68"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" t="s">
         <v>82</v>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" t="s">
         <v>96</v>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="56" t="s">
         <v>157</v>
@@ -9034,7 +9034,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="56" t="s">
         <v>157</v>
@@ -9050,7 +9050,7 @@
       <c r="H9" s="52"/>
       <c r="I9" s="279"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="56" t="s">
         <v>157</v>
@@ -9066,7 +9066,7 @@
       <c r="H10" s="52"/>
       <c r="I10" s="279"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="56" t="s">
         <v>157</v>
@@ -9082,7 +9082,7 @@
       <c r="H11" s="52"/>
       <c r="I11" s="279"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>88</v>
@@ -9101,7 +9101,7 @@
       <c r="H12" s="162"/>
       <c r="I12" s="209"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="82"/>
       <c r="B13" s="183" t="s">
         <v>245</v>
@@ -9125,7 +9125,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="247" t="s">
         <v>107</v>
       </c>
@@ -9138,7 +9138,7 @@
       <c r="H15" s="248"/>
       <c r="I15" s="249"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="255"/>
       <c r="B16" s="257" t="s">
         <v>2</v>
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="264"/>
       <c r="B17" s="267"/>
       <c r="C17" s="12"/>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="I17" s="280"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="46"/>
       <c r="B18" s="46" t="s">
         <v>82</v>
@@ -9200,7 +9200,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="68"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" t="s">
         <v>82</v>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="I19" s="208"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="56"/>
       <c r="C20" t="s">
@@ -9250,7 +9250,7 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="56" t="s">
         <v>157</v>
@@ -9268,7 +9268,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="56" t="s">
         <v>157</v>
@@ -9284,7 +9284,7 @@
       <c r="H22" s="161"/>
       <c r="I22" s="279"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="56" t="s">
         <v>157</v>
@@ -9300,7 +9300,7 @@
       <c r="H23" s="161"/>
       <c r="I23" s="279"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="56" t="s">
         <v>157</v>
@@ -9316,7 +9316,7 @@
       <c r="H24" s="161"/>
       <c r="I24" s="279"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="12" t="s">
         <v>88</v>
@@ -9335,7 +9335,7 @@
       <c r="H25" s="171"/>
       <c r="I25" s="209"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="82"/>
       <c r="B26" s="183" t="s">
         <v>245</v>
@@ -9360,7 +9360,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="230" t="s">
         <v>274</v>
       </c>
@@ -9420,16 +9420,16 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="2"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="2"/>
+    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="30.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="247" t="s">
         <v>102</v>
       </c>
@@ -9442,7 +9442,7 @@
       <c r="H2" s="248"/>
       <c r="I2" s="249"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="255"/>
       <c r="B3" s="257" t="s">
         <v>2</v>
@@ -9462,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="264"/>
       <c r="B4" s="267"/>
       <c r="C4" s="12"/>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I4" s="280"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" s="46" t="s">
         <v>82</v>
@@ -9501,7 +9501,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="68"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" t="s">
         <v>82</v>
@@ -9522,7 +9522,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" t="s">
         <v>96</v>
@@ -9544,7 +9544,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="56" t="s">
         <v>157</v>
@@ -9562,7 +9562,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="56" t="s">
         <v>157</v>
@@ -9578,7 +9578,7 @@
       <c r="H9" s="161"/>
       <c r="I9" s="279"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="56" t="s">
         <v>157</v>
@@ -9594,7 +9594,7 @@
       <c r="H10" s="161"/>
       <c r="I10" s="279"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="56" t="s">
         <v>157</v>
@@ -9610,7 +9610,7 @@
       <c r="H11" s="161"/>
       <c r="I11" s="279"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>88</v>
@@ -9629,7 +9629,7 @@
       <c r="H12" s="171"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="82"/>
       <c r="B13" s="183" t="s">
         <v>245</v>
@@ -9653,7 +9653,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="50" t="s">
         <v>32</v>
       </c>
@@ -9692,21 +9692,21 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="2"/>
-    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="85.85546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="14.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="2"/>
+    <col min="10" max="10" width="27.7265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="85.81640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="148"/>
       <c r="B1" s="150"/>
       <c r="C1" s="83"/>
@@ -9718,7 +9718,7 @@
       <c r="I1" s="84"/>
       <c r="J1" s="85"/>
     </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="255" t="s">
         <v>48</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="264"/>
       <c r="B3" s="266"/>
       <c r="C3" s="267"/>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="J3" s="124"/>
     </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46"/>
       <c r="C4" s="181" t="s">
         <v>82</v>
@@ -9789,7 +9789,7 @@
       <c r="I4" s="39"/>
       <c r="J4" s="68"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
@@ -9810,7 +9810,7 @@
       </c>
       <c r="J5" s="205"/>
     </row>
-    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="210"/>
       <c r="C6" s="9" t="s">
         <v>51</v>
@@ -9828,7 +9828,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="C7" s="9" t="s">
         <v>51</v>
@@ -9844,7 +9844,7 @@
       <c r="I7" s="211"/>
       <c r="J7" s="279"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="C8" s="9" t="s">
         <v>51</v>
@@ -9860,7 +9860,7 @@
       <c r="I8" s="211"/>
       <c r="J8" s="279"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="C9" s="9" t="s">
         <v>51</v>
@@ -9876,7 +9876,7 @@
       <c r="I9" s="211"/>
       <c r="J9" s="279"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="C10" s="9" t="s">
         <v>51</v>
@@ -9892,7 +9892,7 @@
       <c r="I10" s="211"/>
       <c r="J10" s="279"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="C11" s="9" t="s">
         <v>51</v>
@@ -9908,7 +9908,7 @@
       <c r="I11" s="211"/>
       <c r="J11" s="279"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="J12" s="205"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>20</v>
@@ -9950,7 +9950,7 @@
       </c>
       <c r="J13" s="205"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
       <c r="C14" s="13" t="s">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="J14" s="207"/>
     </row>
-    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="82"/>
       <c r="B15" s="83"/>
       <c r="C15" s="183" t="s">
@@ -9998,7 +9998,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="214"/>
       <c r="B16" s="147"/>
       <c r="C16" s="12"/>
@@ -10010,7 +10010,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="255" t="s">
         <v>57</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="264"/>
       <c r="B18" s="266"/>
       <c r="C18" s="267"/>
@@ -10056,7 +10056,7 @@
       </c>
       <c r="J18" s="124"/>
     </row>
-    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="46"/>
       <c r="C19" s="181" t="s">
         <v>82</v>
@@ -10081,7 +10081,7 @@
       <c r="I19" s="39"/>
       <c r="J19" s="68"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="C20" s="5" t="s">
         <v>6</v>
@@ -10102,7 +10102,7 @@
       </c>
       <c r="J20" s="205"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="210"/>
       <c r="C21" s="9" t="s">
         <v>51</v>
@@ -10120,7 +10120,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="C22" s="9" t="s">
         <v>51</v>
@@ -10136,7 +10136,7 @@
       <c r="I22" s="52"/>
       <c r="J22" s="279"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="C23" s="9" t="s">
         <v>51</v>
@@ -10152,7 +10152,7 @@
       <c r="I23" s="52"/>
       <c r="J23" s="279"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="C24" s="9" t="s">
         <v>51</v>
@@ -10168,7 +10168,7 @@
       <c r="I24" s="52"/>
       <c r="J24" s="279"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="C25" s="9" t="s">
         <v>51</v>
@@ -10184,7 +10184,7 @@
       <c r="I25" s="52"/>
       <c r="J25" s="279"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="C26" s="9" t="s">
         <v>51</v>
@@ -10200,7 +10200,7 @@
       <c r="I26" s="52"/>
       <c r="J26" s="279"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="C27" s="5" t="s">
         <v>6</v>
@@ -10221,7 +10221,7 @@
       </c>
       <c r="J27" s="205"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="13" t="s">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="J28" s="207"/>
     </row>
-    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="183" t="s">
@@ -10269,7 +10269,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="214"/>
       <c r="B30" s="147"/>
       <c r="C30" s="12"/>
@@ -10281,7 +10281,7 @@
       <c r="I30" s="22"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="255" t="s">
         <v>59</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="264"/>
       <c r="B32" s="266"/>
       <c r="C32" s="267"/>
@@ -10327,7 +10327,7 @@
       </c>
       <c r="J32" s="124"/>
     </row>
-    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="46"/>
       <c r="C33" s="181" t="s">
         <v>82</v>
@@ -10352,7 +10352,7 @@
       <c r="I33" s="39"/>
       <c r="J33" s="68"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C34" s="5" t="s">
         <v>6</v>
       </c>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="J34" s="205"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="210"/>
       <c r="C35" s="5" t="s">
         <v>6</v>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="J35" s="205"/>
     </row>
-    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="C36" s="9" t="s">
         <v>51</v>
@@ -10411,7 +10411,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="C37" s="9" t="s">
         <v>51</v>
@@ -10427,7 +10427,7 @@
       <c r="I37" s="52"/>
       <c r="J37" s="279"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="C38" s="9" t="s">
         <v>51</v>
@@ -10443,7 +10443,7 @@
       <c r="I38" s="52"/>
       <c r="J38" s="279"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="C39" s="9" t="s">
         <v>51</v>
@@ -10459,7 +10459,7 @@
       <c r="I39" s="52"/>
       <c r="J39" s="279"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="C40" s="9" t="s">
         <v>51</v>
@@ -10475,7 +10475,7 @@
       <c r="I40" s="52"/>
       <c r="J40" s="279"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="C41" s="5" t="s">
         <v>6</v>
@@ -10496,7 +10496,7 @@
       </c>
       <c r="J41" s="208"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="13" t="s">
@@ -10518,7 +10518,7 @@
       </c>
       <c r="J42" s="207"/>
     </row>
-    <row r="43" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="183" t="s">
@@ -10544,7 +10544,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="214"/>
       <c r="B44" s="147"/>
       <c r="C44" s="12"/>
@@ -10556,7 +10556,7 @@
       <c r="I44" s="22"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="255" t="s">
         <v>62</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="264"/>
       <c r="B46" s="266"/>
       <c r="C46" s="267"/>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="J46" s="124"/>
     </row>
-    <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="46"/>
       <c r="C47" s="181" t="s">
         <v>82</v>
@@ -10627,7 +10627,7 @@
       <c r="I47" s="39"/>
       <c r="J47" s="68"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="C48" s="215" t="s">
         <v>6</v>
@@ -10648,7 +10648,7 @@
       </c>
       <c r="J48" s="205"/>
     </row>
-    <row r="49" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="210"/>
       <c r="C49" s="9" t="s">
         <v>51</v>
@@ -10666,7 +10666,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="C50" s="9" t="s">
         <v>51</v>
@@ -10682,7 +10682,7 @@
       <c r="I50" s="217"/>
       <c r="J50" s="279"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="C51" s="9" t="s">
         <v>51</v>
@@ -10698,7 +10698,7 @@
       <c r="I51" s="217"/>
       <c r="J51" s="279"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="C52" s="9" t="s">
         <v>51</v>
@@ -10714,7 +10714,7 @@
       <c r="I52" s="217"/>
       <c r="J52" s="279"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="C53" s="9" t="s">
         <v>51</v>
@@ -10730,7 +10730,7 @@
       <c r="I53" s="217"/>
       <c r="J53" s="279"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="C54" s="215" t="s">
         <v>6</v>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="J54" s="208"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="13" t="s">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="J55" s="207"/>
     </row>
-    <row r="56" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="183" t="s">
@@ -10799,7 +10799,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="214"/>
       <c r="B57" s="147"/>
       <c r="C57" s="12"/>
@@ -10811,7 +10811,7 @@
       <c r="I57" s="22"/>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="255" t="s">
         <v>240</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="264"/>
       <c r="B59" s="266"/>
       <c r="C59" s="267"/>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="J59" s="124"/>
     </row>
-    <row r="60" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="46"/>
       <c r="C60" s="181" t="s">
         <v>82</v>
@@ -10882,7 +10882,7 @@
       <c r="I60" s="39"/>
       <c r="J60" s="68"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="C61" s="215" t="s">
         <v>6</v>
@@ -10903,7 +10903,7 @@
       </c>
       <c r="J61" s="205"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="210"/>
       <c r="C62" s="9" t="s">
         <v>51</v>
@@ -10921,7 +10921,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="C63" s="9" t="s">
         <v>51</v>
@@ -10937,7 +10937,7 @@
       <c r="I63" s="217"/>
       <c r="J63" s="279"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="C64" s="9" t="s">
         <v>51</v>
@@ -10953,7 +10953,7 @@
       <c r="I64" s="217"/>
       <c r="J64" s="279"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="C65" s="9" t="s">
         <v>51</v>
@@ -10969,7 +10969,7 @@
       <c r="I65" s="217"/>
       <c r="J65" s="279"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="C66" s="9" t="s">
         <v>51</v>
@@ -10985,7 +10985,7 @@
       <c r="I66" s="217"/>
       <c r="J66" s="279"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="C67" s="215" t="s">
         <v>6</v>
@@ -11006,7 +11006,7 @@
       </c>
       <c r="J67" s="205"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="13" t="s">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="J68" s="207"/>
     </row>
-    <row r="69" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="183" t="s">
@@ -11054,7 +11054,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="214"/>
       <c r="B70" s="147"/>
       <c r="C70" s="12"/>
@@ -11066,7 +11066,7 @@
       <c r="I70" s="22"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="255" t="s">
         <v>241</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="264"/>
       <c r="B72" s="266"/>
       <c r="C72" s="267"/>
@@ -11112,7 +11112,7 @@
       </c>
       <c r="J72" s="124"/>
     </row>
-    <row r="73" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="46"/>
       <c r="C73" s="181" t="s">
         <v>82</v>
@@ -11137,7 +11137,7 @@
       <c r="I73" s="39"/>
       <c r="J73" s="68"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="218"/>
       <c r="C74" s="215" t="s">
         <v>6</v>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="J74" s="205"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="210"/>
       <c r="C75" s="9" t="s">
         <v>51</v>
@@ -11176,7 +11176,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="C76" s="9" t="s">
         <v>51</v>
@@ -11192,7 +11192,7 @@
       <c r="I76" s="217"/>
       <c r="J76" s="279"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="C77" s="9" t="s">
         <v>51</v>
@@ -11208,7 +11208,7 @@
       <c r="I77" s="217"/>
       <c r="J77" s="279"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="C78" s="9" t="s">
         <v>51</v>
@@ -11224,7 +11224,7 @@
       <c r="I78" s="217"/>
       <c r="J78" s="279"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="C79" s="9" t="s">
         <v>51</v>
@@ -11240,7 +11240,7 @@
       <c r="I79" s="217"/>
       <c r="J79" s="279"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="C80" s="215" t="s">
         <v>6</v>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="J80" s="205"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="13" t="s">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="J81" s="207"/>
     </row>
-    <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11"/>
       <c r="B82" s="12"/>
       <c r="C82" s="183" t="s">
@@ -11309,7 +11309,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="214"/>
       <c r="B83" s="147"/>
       <c r="C83" s="12"/>
@@ -11321,7 +11321,7 @@
       <c r="I83" s="22"/>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="255" t="s">
         <v>242</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="264"/>
       <c r="B85" s="266"/>
       <c r="C85" s="267"/>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="J85" s="124"/>
     </row>
-    <row r="86" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="46"/>
       <c r="C86" s="181" t="s">
         <v>82</v>
@@ -11392,7 +11392,7 @@
       <c r="I86" s="39"/>
       <c r="J86" s="68"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="4"/>
       <c r="C87" s="215" t="s">
         <v>6</v>
@@ -11413,7 +11413,7 @@
       </c>
       <c r="J87" s="205"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="210"/>
       <c r="C88" s="9" t="s">
         <v>51</v>
@@ -11431,7 +11431,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C89" s="9" t="s">
         <v>51</v>
       </c>
@@ -11446,7 +11446,7 @@
       <c r="I89" s="217"/>
       <c r="J89" s="279"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
       <c r="C90" s="9" t="s">
         <v>51</v>
@@ -11462,7 +11462,7 @@
       <c r="I90" s="217"/>
       <c r="J90" s="279"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
       <c r="C91" s="9" t="s">
         <v>51</v>
@@ -11478,7 +11478,7 @@
       <c r="I91" s="217"/>
       <c r="J91" s="279"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
       <c r="C92" s="9" t="s">
         <v>51</v>
@@ -11494,7 +11494,7 @@
       <c r="I92" s="217"/>
       <c r="J92" s="279"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="4"/>
       <c r="C93" s="215" t="s">
         <v>6</v>
@@ -11515,7 +11515,7 @@
       </c>
       <c r="J93" s="205"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="13" t="s">
@@ -11537,7 +11537,7 @@
       </c>
       <c r="J94" s="207"/>
     </row>
-    <row r="95" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11"/>
       <c r="B95" s="12"/>
       <c r="C95" s="183" t="s">
@@ -11563,7 +11563,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="20"/>
@@ -11571,7 +11571,7 @@
       <c r="G96" s="2"/>
       <c r="I96" s="70"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>108</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>32</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="50" t="s">
         <v>19</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="50" t="s">
         <v>35</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="50" t="s">
         <v>37</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="50" t="s">
         <v>122</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="50" t="s">
         <v>223</v>
       </c>
@@ -11745,35 +11745,63 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="J75:J79"/>
-    <mergeCell ref="J88:J92"/>
-    <mergeCell ref="J6:J11"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="J36:J40"/>
-    <mergeCell ref="J49:J53"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
@@ -11788,41 +11816,13 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="J75:J79"/>
+    <mergeCell ref="J88:J92"/>
+    <mergeCell ref="J6:J11"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="J36:J40"/>
+    <mergeCell ref="J49:J53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B100" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{08C37779-D221-400E-B10A-9D56EB8BC329}"/>
@@ -11847,16 +11847,16 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="148"/>
       <c r="B1" s="150"/>
       <c r="C1" s="83"/>
@@ -11868,7 +11868,7 @@
       <c r="I1" s="84"/>
       <c r="J1" s="85"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="255" t="s">
         <v>144</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="264"/>
       <c r="B3" s="266"/>
       <c r="C3" s="267"/>
@@ -11914,7 +11914,7 @@
       </c>
       <c r="J3" s="124"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="46"/>
       <c r="C4" s="181" t="s">
         <v>82</v>
@@ -11939,7 +11939,7 @@
       <c r="I4" s="39"/>
       <c r="J4" s="68"/>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
@@ -11960,7 +11960,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
@@ -11982,7 +11982,7 @@
       </c>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="183" t="s">
@@ -12008,10 +12008,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>108</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
         <v>32</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
         <v>19</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>EuroChlor</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
@@ -12105,7 +12105,7 @@
       <c r="O13" s="32"/>
       <c r="P13" s="32"/>
     </row>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32"/>
       <c r="F14"/>
       <c r="J14" s="32"/>
@@ -12116,7 +12116,7 @@
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -12134,7 +12134,7 @@
       <c r="O15" s="32"/>
       <c r="P15" s="32"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -12152,7 +12152,7 @@
       <c r="O16" s="32"/>
       <c r="P16" s="32"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -12170,7 +12170,7 @@
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -12188,7 +12188,7 @@
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -12206,7 +12206,7 @@
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -12224,7 +12224,7 @@
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -12242,7 +12242,7 @@
       <c r="O21" s="32"/>
       <c r="P21" s="32"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -12260,7 +12260,7 @@
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -12278,7 +12278,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -12296,7 +12296,7 @@
       <c r="O24" s="32"/>
       <c r="P24" s="32"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -12314,7 +12314,7 @@
       <c r="O25" s="32"/>
       <c r="P25" s="32"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12332,7 +12332,7 @@
       <c r="O26" s="32"/>
       <c r="P26" s="32"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -12350,7 +12350,7 @@
       <c r="O27" s="32"/>
       <c r="P27" s="32"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -12368,7 +12368,7 @@
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -12386,7 +12386,7 @@
       <c r="O29" s="32"/>
       <c r="P29" s="32"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -12404,7 +12404,7 @@
       <c r="O30" s="32"/>
       <c r="P30" s="32"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
       <c r="C31" s="33"/>
@@ -12422,7 +12422,7 @@
       <c r="O31" s="32"/>
       <c r="P31" s="32"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="32"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -12440,7 +12440,7 @@
       <c r="O32" s="32"/>
       <c r="P32" s="32"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -12458,7 +12458,7 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -12476,7 +12476,7 @@
       <c r="O34" s="32"/>
       <c r="P34" s="32"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -12494,7 +12494,7 @@
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -12512,7 +12512,7 @@
       <c r="O36" s="32"/>
       <c r="P36" s="32"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -12530,7 +12530,7 @@
       <c r="O37" s="32"/>
       <c r="P37" s="32"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -12548,7 +12548,7 @@
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -12566,7 +12566,7 @@
       <c r="O39" s="32"/>
       <c r="P39" s="32"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="D40" s="32"/>
@@ -12583,7 +12583,7 @@
       <c r="O40" s="32"/>
       <c r="P40" s="32"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -12601,7 +12601,7 @@
       <c r="O41" s="32"/>
       <c r="P41" s="32"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
@@ -12619,7 +12619,7 @@
       <c r="O42" s="32"/>
       <c r="P42" s="32"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
@@ -12637,7 +12637,7 @@
       <c r="O43" s="32"/>
       <c r="P43" s="32"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -12655,7 +12655,7 @@
       <c r="O44" s="32"/>
       <c r="P44" s="32"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -12673,7 +12673,7 @@
       <c r="O45" s="32"/>
       <c r="P45" s="32"/>
     </row>
-    <row r="46" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
@@ -12691,7 +12691,7 @@
       <c r="O46" s="32"/>
       <c r="P46" s="32"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -12709,7 +12709,7 @@
       <c r="O47" s="32"/>
       <c r="P47" s="32"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
